--- a/INVENTARIOS TIENDA/21-7-2022 bajada a tienda.xlsx
+++ b/INVENTARIOS TIENDA/21-7-2022 bajada a tienda.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chadi Salloum\Desktop\INVENTARIOS\INVENTARIOS TIENDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6433F621-5017-42B7-A3E3-3D15E0739B8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB0EB680-DC83-4972-8346-8E52691D2EFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8001A6F6-D8E1-4121-8D92-C4A64C78AF81}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2354" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3266" uniqueCount="396">
   <si>
     <t>CO_ART</t>
   </si>
@@ -910,6 +910,309 @@
   </si>
   <si>
     <t>ZAPATO FASHION NEGRO ROJO</t>
+  </si>
+  <si>
+    <t>AN40AD0002-30031</t>
+  </si>
+  <si>
+    <t>AN41AD0002-30031</t>
+  </si>
+  <si>
+    <t>AN42AD0002-30031</t>
+  </si>
+  <si>
+    <t>AN43AD0002-30031</t>
+  </si>
+  <si>
+    <t>AN44AD0002-30031</t>
+  </si>
+  <si>
+    <t>AN45AD0002-30031</t>
+  </si>
+  <si>
+    <t>ZAPATO CORTE BAJO ADIDAS BADBUNNY NEGRO</t>
+  </si>
+  <si>
+    <t>BADBUNNY</t>
+  </si>
+  <si>
+    <t>ADIDAS</t>
+  </si>
+  <si>
+    <t>AD0002</t>
+  </si>
+  <si>
+    <t>AB36STAR-10001</t>
+  </si>
+  <si>
+    <t>AB37STAR-10001</t>
+  </si>
+  <si>
+    <t>AB38STAR-10001</t>
+  </si>
+  <si>
+    <t>AB39STAR-10001</t>
+  </si>
+  <si>
+    <t>AB40STAR-10001</t>
+  </si>
+  <si>
+    <t>AB41STAR-10001</t>
+  </si>
+  <si>
+    <t>AB42STAR-10001</t>
+  </si>
+  <si>
+    <t>AB43STAR-10001</t>
+  </si>
+  <si>
+    <t>AB44STAR-10001</t>
+  </si>
+  <si>
+    <t>AB45STAR-10001</t>
+  </si>
+  <si>
+    <t>ZAPATOS ADIDAS SUPER STAR BLANCO</t>
+  </si>
+  <si>
+    <t>SUPERSTAR</t>
+  </si>
+  <si>
+    <t>STAR</t>
+  </si>
+  <si>
+    <t>ABN36STAR-20002</t>
+  </si>
+  <si>
+    <t>ABN37STAR-20002</t>
+  </si>
+  <si>
+    <t>ABN38STAR-20002</t>
+  </si>
+  <si>
+    <t>ABN39STAR-20002</t>
+  </si>
+  <si>
+    <t>ABN40STAR-20002</t>
+  </si>
+  <si>
+    <t>ABN41STAR-20002</t>
+  </si>
+  <si>
+    <t>ABN42STAR-20002</t>
+  </si>
+  <si>
+    <t>ABN43STAR-20002</t>
+  </si>
+  <si>
+    <t>ABN44STAR-20002</t>
+  </si>
+  <si>
+    <t>BLANCO NEGRO</t>
+  </si>
+  <si>
+    <t>ANB36STAR-30003</t>
+  </si>
+  <si>
+    <t>ANB37STAR-30003</t>
+  </si>
+  <si>
+    <t>ANB38STAR-30003</t>
+  </si>
+  <si>
+    <t>ANB39STAR-30003</t>
+  </si>
+  <si>
+    <t>ANB40STAR-30003</t>
+  </si>
+  <si>
+    <t>ANB41STAR-30003</t>
+  </si>
+  <si>
+    <t>ANB42STAR-30003</t>
+  </si>
+  <si>
+    <t>ANB43STAR-30003</t>
+  </si>
+  <si>
+    <t>ANB44STAR-30003</t>
+  </si>
+  <si>
+    <t>ANB45STAR-30003</t>
+  </si>
+  <si>
+    <t>ZAPATOS ADIDAS SUPER STAR NEGRO BLANCO</t>
+  </si>
+  <si>
+    <t>ZAPATOS ADIDAS SUPER STAR BLANCO NEGRO</t>
+  </si>
+  <si>
+    <t>ABN45STAR-20002</t>
+  </si>
+  <si>
+    <t>ABT36STAR-40004</t>
+  </si>
+  <si>
+    <t>ABT37STAR-40004</t>
+  </si>
+  <si>
+    <t>ABT38STAR-40004</t>
+  </si>
+  <si>
+    <t>ABT39STAR-40004</t>
+  </si>
+  <si>
+    <t>ABT40STAR-40004</t>
+  </si>
+  <si>
+    <t>ZAPATOS ADIDAS SUPER STAR BLANCO NEGRO TORNASOL</t>
+  </si>
+  <si>
+    <t>BLANCO NEGRO TORNASOL</t>
+  </si>
+  <si>
+    <t>ABNR36STAR-50005</t>
+  </si>
+  <si>
+    <t>ABNR37STAR-50005</t>
+  </si>
+  <si>
+    <t>ABNR38STAR-50005</t>
+  </si>
+  <si>
+    <t>ABNR39STAR-50005</t>
+  </si>
+  <si>
+    <t>ABNR40STAR-50005</t>
+  </si>
+  <si>
+    <t>ABNR41STAR-50005</t>
+  </si>
+  <si>
+    <t>ABNR42STAR-50005</t>
+  </si>
+  <si>
+    <t>ABNR43STAR-50005</t>
+  </si>
+  <si>
+    <t>ABNR44STAR-50005</t>
+  </si>
+  <si>
+    <t>ABNR45STAR-50005</t>
+  </si>
+  <si>
+    <t>ZAPATOS ADIDAS SUPER STAR BLANCO NEGRO ROJO</t>
+  </si>
+  <si>
+    <t>BLANCO NEGRO ROJO</t>
+  </si>
+  <si>
+    <t>NBN36AIR-10001</t>
+  </si>
+  <si>
+    <t>NBN37AIR-10001</t>
+  </si>
+  <si>
+    <t>NBN38AIR-10001</t>
+  </si>
+  <si>
+    <t>NBN39AIR-10001</t>
+  </si>
+  <si>
+    <t>NBN40AIR-10001</t>
+  </si>
+  <si>
+    <t>ZAPATOS NIKE AIR FORCE ONE BLANCO NARANJA GUCCI</t>
+  </si>
+  <si>
+    <t>AIR FORCE</t>
+  </si>
+  <si>
+    <t>BLANCO NARANJA</t>
+  </si>
+  <si>
+    <t>AIR</t>
+  </si>
+  <si>
+    <t>ZAPATOS NIKE AIR FORCE ONE AZUL DIOR</t>
+  </si>
+  <si>
+    <t>NA36AIR-20002</t>
+  </si>
+  <si>
+    <t>NA37AIR-20002</t>
+  </si>
+  <si>
+    <t>NA38AIR-20002</t>
+  </si>
+  <si>
+    <t>NA39AIR-20002</t>
+  </si>
+  <si>
+    <t>NA40AIR-20002</t>
+  </si>
+  <si>
+    <t>AZUL</t>
+  </si>
+  <si>
+    <t>ZAPATOS NIKE AIR FORCE ONE BLANCO ARCOIRIS</t>
+  </si>
+  <si>
+    <t>BLANCO ARCOIRIS</t>
+  </si>
+  <si>
+    <t>NBA36AIR-30003</t>
+  </si>
+  <si>
+    <t>NBA37AIR-30003</t>
+  </si>
+  <si>
+    <t>NBA38AIR-30003</t>
+  </si>
+  <si>
+    <t>NBA39AIR-30003</t>
+  </si>
+  <si>
+    <t>NBA40AIR-30003</t>
+  </si>
+  <si>
+    <t>NBC36AIR-40004</t>
+  </si>
+  <si>
+    <t>NBC37AIR-40004</t>
+  </si>
+  <si>
+    <t>NBC38AIR-40004</t>
+  </si>
+  <si>
+    <t>NBC39AIR-40004</t>
+  </si>
+  <si>
+    <t>NBC40AIR-40004</t>
+  </si>
+  <si>
+    <t>ZAPATOS NIKE AIR FORCE ONE BLANCO COLORES LV</t>
+  </si>
+  <si>
+    <t>NBA36AIR-50005</t>
+  </si>
+  <si>
+    <t>NBA37AIR-50005</t>
+  </si>
+  <si>
+    <t>NBA38AIR-50005</t>
+  </si>
+  <si>
+    <t>NBA39AIR-50005</t>
+  </si>
+  <si>
+    <t>NBA40AIR-50005</t>
+  </si>
+  <si>
+    <t>ZAPATOS NIKE AIR FORCE ONE BLANCO AZUL LV</t>
+  </si>
+  <si>
+    <t>BLANCO AZUL</t>
   </si>
 </sst>
 </file>
@@ -1301,10 +1604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{910F22F0-F4CD-45E5-B8AF-0C50B326A656}">
-  <dimension ref="A1:Z195"/>
+  <dimension ref="A1:Z271"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="C250" workbookViewId="0">
+      <selection activeCell="Z266" sqref="Z266:Z271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12846,6 +13149,4490 @@
         <v>212</v>
       </c>
     </row>
+    <row r="196" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>295</v>
+      </c>
+      <c r="B196" t="s">
+        <v>301</v>
+      </c>
+      <c r="C196" t="s">
+        <v>36</v>
+      </c>
+      <c r="D196" t="s">
+        <v>38</v>
+      </c>
+      <c r="E196" t="s">
+        <v>39</v>
+      </c>
+      <c r="F196" t="s">
+        <v>40</v>
+      </c>
+      <c r="G196" t="s">
+        <v>41</v>
+      </c>
+      <c r="H196" t="s">
+        <v>302</v>
+      </c>
+      <c r="I196" t="s">
+        <v>211</v>
+      </c>
+      <c r="J196">
+        <v>40</v>
+      </c>
+      <c r="K196" t="s">
+        <v>303</v>
+      </c>
+      <c r="N196">
+        <v>1</v>
+      </c>
+      <c r="T196">
+        <v>1</v>
+      </c>
+      <c r="U196">
+        <v>60</v>
+      </c>
+      <c r="V196" t="s">
+        <v>45</v>
+      </c>
+      <c r="W196">
+        <v>1</v>
+      </c>
+      <c r="X196">
+        <v>25998807</v>
+      </c>
+      <c r="Y196">
+        <v>5</v>
+      </c>
+      <c r="Z196" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="197" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>296</v>
+      </c>
+      <c r="B197" t="s">
+        <v>301</v>
+      </c>
+      <c r="C197" t="s">
+        <v>36</v>
+      </c>
+      <c r="D197" t="s">
+        <v>38</v>
+      </c>
+      <c r="E197" t="s">
+        <v>39</v>
+      </c>
+      <c r="F197" t="s">
+        <v>40</v>
+      </c>
+      <c r="G197" t="s">
+        <v>41</v>
+      </c>
+      <c r="H197" t="s">
+        <v>302</v>
+      </c>
+      <c r="I197" t="s">
+        <v>211</v>
+      </c>
+      <c r="J197">
+        <v>41</v>
+      </c>
+      <c r="K197" t="s">
+        <v>303</v>
+      </c>
+      <c r="N197">
+        <v>2</v>
+      </c>
+      <c r="T197">
+        <v>1</v>
+      </c>
+      <c r="U197">
+        <v>60</v>
+      </c>
+      <c r="V197" t="s">
+        <v>45</v>
+      </c>
+      <c r="W197">
+        <v>1</v>
+      </c>
+      <c r="X197">
+        <v>25998807</v>
+      </c>
+      <c r="Y197">
+        <v>5</v>
+      </c>
+      <c r="Z197" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="198" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>297</v>
+      </c>
+      <c r="B198" t="s">
+        <v>301</v>
+      </c>
+      <c r="C198" t="s">
+        <v>36</v>
+      </c>
+      <c r="D198" t="s">
+        <v>38</v>
+      </c>
+      <c r="E198" t="s">
+        <v>39</v>
+      </c>
+      <c r="F198" t="s">
+        <v>40</v>
+      </c>
+      <c r="G198" t="s">
+        <v>41</v>
+      </c>
+      <c r="H198" t="s">
+        <v>302</v>
+      </c>
+      <c r="I198" t="s">
+        <v>211</v>
+      </c>
+      <c r="J198">
+        <v>42</v>
+      </c>
+      <c r="K198" t="s">
+        <v>303</v>
+      </c>
+      <c r="N198">
+        <v>3</v>
+      </c>
+      <c r="T198">
+        <v>1</v>
+      </c>
+      <c r="U198">
+        <v>60</v>
+      </c>
+      <c r="V198" t="s">
+        <v>45</v>
+      </c>
+      <c r="W198">
+        <v>1</v>
+      </c>
+      <c r="X198">
+        <v>25998807</v>
+      </c>
+      <c r="Y198">
+        <v>5</v>
+      </c>
+      <c r="Z198" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="199" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>298</v>
+      </c>
+      <c r="B199" t="s">
+        <v>301</v>
+      </c>
+      <c r="C199" t="s">
+        <v>36</v>
+      </c>
+      <c r="D199" t="s">
+        <v>38</v>
+      </c>
+      <c r="E199" t="s">
+        <v>39</v>
+      </c>
+      <c r="F199" t="s">
+        <v>40</v>
+      </c>
+      <c r="G199" t="s">
+        <v>41</v>
+      </c>
+      <c r="H199" t="s">
+        <v>302</v>
+      </c>
+      <c r="I199" t="s">
+        <v>211</v>
+      </c>
+      <c r="J199">
+        <v>43</v>
+      </c>
+      <c r="K199" t="s">
+        <v>303</v>
+      </c>
+      <c r="N199">
+        <v>3</v>
+      </c>
+      <c r="T199">
+        <v>1</v>
+      </c>
+      <c r="U199">
+        <v>60</v>
+      </c>
+      <c r="V199" t="s">
+        <v>45</v>
+      </c>
+      <c r="W199">
+        <v>1</v>
+      </c>
+      <c r="X199">
+        <v>25998807</v>
+      </c>
+      <c r="Y199">
+        <v>5</v>
+      </c>
+      <c r="Z199" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="200" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>299</v>
+      </c>
+      <c r="B200" t="s">
+        <v>301</v>
+      </c>
+      <c r="C200" t="s">
+        <v>36</v>
+      </c>
+      <c r="D200" t="s">
+        <v>38</v>
+      </c>
+      <c r="E200" t="s">
+        <v>39</v>
+      </c>
+      <c r="F200" t="s">
+        <v>40</v>
+      </c>
+      <c r="G200" t="s">
+        <v>41</v>
+      </c>
+      <c r="H200" t="s">
+        <v>302</v>
+      </c>
+      <c r="I200" t="s">
+        <v>211</v>
+      </c>
+      <c r="J200">
+        <v>44</v>
+      </c>
+      <c r="K200" t="s">
+        <v>303</v>
+      </c>
+      <c r="N200">
+        <v>2</v>
+      </c>
+      <c r="T200">
+        <v>1</v>
+      </c>
+      <c r="U200">
+        <v>60</v>
+      </c>
+      <c r="V200" t="s">
+        <v>45</v>
+      </c>
+      <c r="W200">
+        <v>1</v>
+      </c>
+      <c r="X200">
+        <v>25998807</v>
+      </c>
+      <c r="Y200">
+        <v>5</v>
+      </c>
+      <c r="Z200" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="201" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>300</v>
+      </c>
+      <c r="B201" t="s">
+        <v>301</v>
+      </c>
+      <c r="C201" t="s">
+        <v>36</v>
+      </c>
+      <c r="D201" t="s">
+        <v>38</v>
+      </c>
+      <c r="E201" t="s">
+        <v>39</v>
+      </c>
+      <c r="F201" t="s">
+        <v>40</v>
+      </c>
+      <c r="G201" t="s">
+        <v>41</v>
+      </c>
+      <c r="H201" t="s">
+        <v>302</v>
+      </c>
+      <c r="I201" t="s">
+        <v>211</v>
+      </c>
+      <c r="J201">
+        <v>45</v>
+      </c>
+      <c r="K201" t="s">
+        <v>303</v>
+      </c>
+      <c r="N201">
+        <v>1</v>
+      </c>
+      <c r="T201">
+        <v>1</v>
+      </c>
+      <c r="U201">
+        <v>60</v>
+      </c>
+      <c r="V201" t="s">
+        <v>45</v>
+      </c>
+      <c r="W201">
+        <v>1</v>
+      </c>
+      <c r="X201">
+        <v>25998807</v>
+      </c>
+      <c r="Y201">
+        <v>5</v>
+      </c>
+      <c r="Z201" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="202" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>305</v>
+      </c>
+      <c r="B202" t="s">
+        <v>315</v>
+      </c>
+      <c r="C202" t="s">
+        <v>36</v>
+      </c>
+      <c r="D202" t="s">
+        <v>37</v>
+      </c>
+      <c r="E202" t="s">
+        <v>39</v>
+      </c>
+      <c r="F202" t="s">
+        <v>40</v>
+      </c>
+      <c r="G202" t="s">
+        <v>41</v>
+      </c>
+      <c r="H202" t="s">
+        <v>316</v>
+      </c>
+      <c r="I202" t="s">
+        <v>155</v>
+      </c>
+      <c r="J202">
+        <v>36</v>
+      </c>
+      <c r="K202" t="s">
+        <v>303</v>
+      </c>
+      <c r="N202">
+        <v>2</v>
+      </c>
+      <c r="T202">
+        <v>1</v>
+      </c>
+      <c r="U202">
+        <v>20</v>
+      </c>
+      <c r="V202" t="s">
+        <v>45</v>
+      </c>
+      <c r="W202">
+        <v>1</v>
+      </c>
+      <c r="X202">
+        <v>25998807</v>
+      </c>
+      <c r="Y202">
+        <v>5</v>
+      </c>
+      <c r="Z202" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="203" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>306</v>
+      </c>
+      <c r="B203" t="s">
+        <v>315</v>
+      </c>
+      <c r="C203" t="s">
+        <v>36</v>
+      </c>
+      <c r="D203" t="s">
+        <v>37</v>
+      </c>
+      <c r="E203" t="s">
+        <v>39</v>
+      </c>
+      <c r="F203" t="s">
+        <v>40</v>
+      </c>
+      <c r="G203" t="s">
+        <v>41</v>
+      </c>
+      <c r="H203" t="s">
+        <v>316</v>
+      </c>
+      <c r="I203" t="s">
+        <v>155</v>
+      </c>
+      <c r="J203">
+        <v>37</v>
+      </c>
+      <c r="K203" t="s">
+        <v>303</v>
+      </c>
+      <c r="N203">
+        <v>3</v>
+      </c>
+      <c r="T203">
+        <v>1</v>
+      </c>
+      <c r="U203">
+        <v>20</v>
+      </c>
+      <c r="V203" t="s">
+        <v>45</v>
+      </c>
+      <c r="W203">
+        <v>1</v>
+      </c>
+      <c r="X203">
+        <v>25998807</v>
+      </c>
+      <c r="Y203">
+        <v>5</v>
+      </c>
+      <c r="Z203" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="204" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>307</v>
+      </c>
+      <c r="B204" t="s">
+        <v>315</v>
+      </c>
+      <c r="C204" t="s">
+        <v>36</v>
+      </c>
+      <c r="D204" t="s">
+        <v>37</v>
+      </c>
+      <c r="E204" t="s">
+        <v>39</v>
+      </c>
+      <c r="F204" t="s">
+        <v>40</v>
+      </c>
+      <c r="G204" t="s">
+        <v>41</v>
+      </c>
+      <c r="H204" t="s">
+        <v>316</v>
+      </c>
+      <c r="I204" t="s">
+        <v>155</v>
+      </c>
+      <c r="J204">
+        <v>38</v>
+      </c>
+      <c r="K204" t="s">
+        <v>303</v>
+      </c>
+      <c r="N204">
+        <v>4</v>
+      </c>
+      <c r="T204">
+        <v>1</v>
+      </c>
+      <c r="U204">
+        <v>20</v>
+      </c>
+      <c r="V204" t="s">
+        <v>45</v>
+      </c>
+      <c r="W204">
+        <v>1</v>
+      </c>
+      <c r="X204">
+        <v>25998807</v>
+      </c>
+      <c r="Y204">
+        <v>5</v>
+      </c>
+      <c r="Z204" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="205" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>308</v>
+      </c>
+      <c r="B205" t="s">
+        <v>315</v>
+      </c>
+      <c r="C205" t="s">
+        <v>36</v>
+      </c>
+      <c r="D205" t="s">
+        <v>37</v>
+      </c>
+      <c r="E205" t="s">
+        <v>39</v>
+      </c>
+      <c r="F205" t="s">
+        <v>40</v>
+      </c>
+      <c r="G205" t="s">
+        <v>41</v>
+      </c>
+      <c r="H205" t="s">
+        <v>316</v>
+      </c>
+      <c r="I205" t="s">
+        <v>155</v>
+      </c>
+      <c r="J205">
+        <v>39</v>
+      </c>
+      <c r="K205" t="s">
+        <v>303</v>
+      </c>
+      <c r="N205">
+        <v>2</v>
+      </c>
+      <c r="T205">
+        <v>1</v>
+      </c>
+      <c r="U205">
+        <v>20</v>
+      </c>
+      <c r="V205" t="s">
+        <v>45</v>
+      </c>
+      <c r="W205">
+        <v>1</v>
+      </c>
+      <c r="X205">
+        <v>25998807</v>
+      </c>
+      <c r="Y205">
+        <v>5</v>
+      </c>
+      <c r="Z205" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="206" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>309</v>
+      </c>
+      <c r="B206" t="s">
+        <v>315</v>
+      </c>
+      <c r="C206" t="s">
+        <v>36</v>
+      </c>
+      <c r="D206" t="s">
+        <v>37</v>
+      </c>
+      <c r="E206" t="s">
+        <v>39</v>
+      </c>
+      <c r="F206" t="s">
+        <v>40</v>
+      </c>
+      <c r="G206" t="s">
+        <v>41</v>
+      </c>
+      <c r="H206" t="s">
+        <v>316</v>
+      </c>
+      <c r="I206" t="s">
+        <v>155</v>
+      </c>
+      <c r="J206">
+        <v>40</v>
+      </c>
+      <c r="K206" t="s">
+        <v>303</v>
+      </c>
+      <c r="N206">
+        <v>2</v>
+      </c>
+      <c r="T206">
+        <v>1</v>
+      </c>
+      <c r="U206">
+        <v>20</v>
+      </c>
+      <c r="V206" t="s">
+        <v>45</v>
+      </c>
+      <c r="W206">
+        <v>1</v>
+      </c>
+      <c r="X206">
+        <v>25998807</v>
+      </c>
+      <c r="Y206">
+        <v>5</v>
+      </c>
+      <c r="Z206" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="207" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>310</v>
+      </c>
+      <c r="B207" t="s">
+        <v>315</v>
+      </c>
+      <c r="C207" t="s">
+        <v>36</v>
+      </c>
+      <c r="D207" t="s">
+        <v>38</v>
+      </c>
+      <c r="E207" t="s">
+        <v>39</v>
+      </c>
+      <c r="F207" t="s">
+        <v>40</v>
+      </c>
+      <c r="G207" t="s">
+        <v>41</v>
+      </c>
+      <c r="H207" t="s">
+        <v>316</v>
+      </c>
+      <c r="I207" t="s">
+        <v>155</v>
+      </c>
+      <c r="J207">
+        <v>41</v>
+      </c>
+      <c r="K207" t="s">
+        <v>303</v>
+      </c>
+      <c r="N207">
+        <v>2</v>
+      </c>
+      <c r="T207">
+        <v>1</v>
+      </c>
+      <c r="U207">
+        <v>20</v>
+      </c>
+      <c r="V207" t="s">
+        <v>45</v>
+      </c>
+      <c r="W207">
+        <v>1</v>
+      </c>
+      <c r="X207">
+        <v>25998807</v>
+      </c>
+      <c r="Y207">
+        <v>5</v>
+      </c>
+      <c r="Z207" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="208" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>311</v>
+      </c>
+      <c r="B208" t="s">
+        <v>315</v>
+      </c>
+      <c r="C208" t="s">
+        <v>36</v>
+      </c>
+      <c r="D208" t="s">
+        <v>38</v>
+      </c>
+      <c r="E208" t="s">
+        <v>39</v>
+      </c>
+      <c r="F208" t="s">
+        <v>40</v>
+      </c>
+      <c r="G208" t="s">
+        <v>41</v>
+      </c>
+      <c r="H208" t="s">
+        <v>316</v>
+      </c>
+      <c r="I208" t="s">
+        <v>155</v>
+      </c>
+      <c r="J208">
+        <v>42</v>
+      </c>
+      <c r="K208" t="s">
+        <v>303</v>
+      </c>
+      <c r="N208">
+        <v>3</v>
+      </c>
+      <c r="T208">
+        <v>1</v>
+      </c>
+      <c r="U208">
+        <v>20</v>
+      </c>
+      <c r="V208" t="s">
+        <v>45</v>
+      </c>
+      <c r="W208">
+        <v>1</v>
+      </c>
+      <c r="X208">
+        <v>25998807</v>
+      </c>
+      <c r="Y208">
+        <v>5</v>
+      </c>
+      <c r="Z208" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="209" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>312</v>
+      </c>
+      <c r="B209" t="s">
+        <v>315</v>
+      </c>
+      <c r="C209" t="s">
+        <v>36</v>
+      </c>
+      <c r="D209" t="s">
+        <v>38</v>
+      </c>
+      <c r="E209" t="s">
+        <v>39</v>
+      </c>
+      <c r="F209" t="s">
+        <v>40</v>
+      </c>
+      <c r="G209" t="s">
+        <v>41</v>
+      </c>
+      <c r="H209" t="s">
+        <v>316</v>
+      </c>
+      <c r="I209" t="s">
+        <v>155</v>
+      </c>
+      <c r="J209">
+        <v>43</v>
+      </c>
+      <c r="K209" t="s">
+        <v>303</v>
+      </c>
+      <c r="N209">
+        <v>3</v>
+      </c>
+      <c r="T209">
+        <v>1</v>
+      </c>
+      <c r="U209">
+        <v>20</v>
+      </c>
+      <c r="V209" t="s">
+        <v>45</v>
+      </c>
+      <c r="W209">
+        <v>1</v>
+      </c>
+      <c r="X209">
+        <v>25998807</v>
+      </c>
+      <c r="Y209">
+        <v>5</v>
+      </c>
+      <c r="Z209" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="210" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>313</v>
+      </c>
+      <c r="B210" t="s">
+        <v>315</v>
+      </c>
+      <c r="C210" t="s">
+        <v>36</v>
+      </c>
+      <c r="D210" t="s">
+        <v>38</v>
+      </c>
+      <c r="E210" t="s">
+        <v>39</v>
+      </c>
+      <c r="F210" t="s">
+        <v>40</v>
+      </c>
+      <c r="G210" t="s">
+        <v>41</v>
+      </c>
+      <c r="H210" t="s">
+        <v>316</v>
+      </c>
+      <c r="I210" t="s">
+        <v>155</v>
+      </c>
+      <c r="J210">
+        <v>44</v>
+      </c>
+      <c r="K210" t="s">
+        <v>303</v>
+      </c>
+      <c r="N210">
+        <v>2</v>
+      </c>
+      <c r="T210">
+        <v>1</v>
+      </c>
+      <c r="U210">
+        <v>20</v>
+      </c>
+      <c r="V210" t="s">
+        <v>45</v>
+      </c>
+      <c r="W210">
+        <v>1</v>
+      </c>
+      <c r="X210">
+        <v>25998807</v>
+      </c>
+      <c r="Y210">
+        <v>5</v>
+      </c>
+      <c r="Z210" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="211" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>314</v>
+      </c>
+      <c r="B211" t="s">
+        <v>315</v>
+      </c>
+      <c r="C211" t="s">
+        <v>36</v>
+      </c>
+      <c r="D211" t="s">
+        <v>38</v>
+      </c>
+      <c r="E211" t="s">
+        <v>39</v>
+      </c>
+      <c r="F211" t="s">
+        <v>40</v>
+      </c>
+      <c r="G211" t="s">
+        <v>41</v>
+      </c>
+      <c r="H211" t="s">
+        <v>316</v>
+      </c>
+      <c r="I211" t="s">
+        <v>155</v>
+      </c>
+      <c r="J211">
+        <v>45</v>
+      </c>
+      <c r="K211" t="s">
+        <v>303</v>
+      </c>
+      <c r="N211">
+        <v>1</v>
+      </c>
+      <c r="T211">
+        <v>1</v>
+      </c>
+      <c r="U211">
+        <v>20</v>
+      </c>
+      <c r="V211" t="s">
+        <v>45</v>
+      </c>
+      <c r="W211">
+        <v>1</v>
+      </c>
+      <c r="X211">
+        <v>25998807</v>
+      </c>
+      <c r="Y211">
+        <v>5</v>
+      </c>
+      <c r="Z211" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="212" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>318</v>
+      </c>
+      <c r="B212" t="s">
+        <v>339</v>
+      </c>
+      <c r="C212" t="s">
+        <v>36</v>
+      </c>
+      <c r="D212" t="s">
+        <v>37</v>
+      </c>
+      <c r="E212" t="s">
+        <v>39</v>
+      </c>
+      <c r="F212" t="s">
+        <v>40</v>
+      </c>
+      <c r="G212" t="s">
+        <v>41</v>
+      </c>
+      <c r="H212" t="s">
+        <v>316</v>
+      </c>
+      <c r="I212" t="s">
+        <v>327</v>
+      </c>
+      <c r="J212">
+        <v>36</v>
+      </c>
+      <c r="K212" t="s">
+        <v>303</v>
+      </c>
+      <c r="N212">
+        <v>2</v>
+      </c>
+      <c r="T212">
+        <v>1</v>
+      </c>
+      <c r="U212">
+        <v>20</v>
+      </c>
+      <c r="V212" t="s">
+        <v>45</v>
+      </c>
+      <c r="W212">
+        <v>1</v>
+      </c>
+      <c r="X212">
+        <v>25998807</v>
+      </c>
+      <c r="Y212">
+        <v>5</v>
+      </c>
+      <c r="Z212" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="213" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>319</v>
+      </c>
+      <c r="B213" t="s">
+        <v>339</v>
+      </c>
+      <c r="C213" t="s">
+        <v>36</v>
+      </c>
+      <c r="D213" t="s">
+        <v>37</v>
+      </c>
+      <c r="E213" t="s">
+        <v>39</v>
+      </c>
+      <c r="F213" t="s">
+        <v>40</v>
+      </c>
+      <c r="G213" t="s">
+        <v>41</v>
+      </c>
+      <c r="H213" t="s">
+        <v>316</v>
+      </c>
+      <c r="I213" t="s">
+        <v>327</v>
+      </c>
+      <c r="J213">
+        <v>37</v>
+      </c>
+      <c r="K213" t="s">
+        <v>303</v>
+      </c>
+      <c r="N213">
+        <v>3</v>
+      </c>
+      <c r="T213">
+        <v>1</v>
+      </c>
+      <c r="U213">
+        <v>20</v>
+      </c>
+      <c r="V213" t="s">
+        <v>45</v>
+      </c>
+      <c r="W213">
+        <v>1</v>
+      </c>
+      <c r="X213">
+        <v>25998807</v>
+      </c>
+      <c r="Y213">
+        <v>5</v>
+      </c>
+      <c r="Z213" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="214" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>320</v>
+      </c>
+      <c r="B214" t="s">
+        <v>339</v>
+      </c>
+      <c r="C214" t="s">
+        <v>36</v>
+      </c>
+      <c r="D214" t="s">
+        <v>37</v>
+      </c>
+      <c r="E214" t="s">
+        <v>39</v>
+      </c>
+      <c r="F214" t="s">
+        <v>40</v>
+      </c>
+      <c r="G214" t="s">
+        <v>41</v>
+      </c>
+      <c r="H214" t="s">
+        <v>316</v>
+      </c>
+      <c r="I214" t="s">
+        <v>327</v>
+      </c>
+      <c r="J214">
+        <v>38</v>
+      </c>
+      <c r="K214" t="s">
+        <v>303</v>
+      </c>
+      <c r="N214">
+        <v>4</v>
+      </c>
+      <c r="T214">
+        <v>1</v>
+      </c>
+      <c r="U214">
+        <v>20</v>
+      </c>
+      <c r="V214" t="s">
+        <v>45</v>
+      </c>
+      <c r="W214">
+        <v>1</v>
+      </c>
+      <c r="X214">
+        <v>25998807</v>
+      </c>
+      <c r="Y214">
+        <v>5</v>
+      </c>
+      <c r="Z214" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="215" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>321</v>
+      </c>
+      <c r="B215" t="s">
+        <v>339</v>
+      </c>
+      <c r="C215" t="s">
+        <v>36</v>
+      </c>
+      <c r="D215" t="s">
+        <v>37</v>
+      </c>
+      <c r="E215" t="s">
+        <v>39</v>
+      </c>
+      <c r="F215" t="s">
+        <v>40</v>
+      </c>
+      <c r="G215" t="s">
+        <v>41</v>
+      </c>
+      <c r="H215" t="s">
+        <v>316</v>
+      </c>
+      <c r="I215" t="s">
+        <v>327</v>
+      </c>
+      <c r="J215">
+        <v>39</v>
+      </c>
+      <c r="K215" t="s">
+        <v>303</v>
+      </c>
+      <c r="N215">
+        <v>2</v>
+      </c>
+      <c r="T215">
+        <v>1</v>
+      </c>
+      <c r="U215">
+        <v>20</v>
+      </c>
+      <c r="V215" t="s">
+        <v>45</v>
+      </c>
+      <c r="W215">
+        <v>1</v>
+      </c>
+      <c r="X215">
+        <v>25998807</v>
+      </c>
+      <c r="Y215">
+        <v>5</v>
+      </c>
+      <c r="Z215" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="216" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>322</v>
+      </c>
+      <c r="B216" t="s">
+        <v>339</v>
+      </c>
+      <c r="C216" t="s">
+        <v>36</v>
+      </c>
+      <c r="D216" t="s">
+        <v>37</v>
+      </c>
+      <c r="E216" t="s">
+        <v>39</v>
+      </c>
+      <c r="F216" t="s">
+        <v>40</v>
+      </c>
+      <c r="G216" t="s">
+        <v>41</v>
+      </c>
+      <c r="H216" t="s">
+        <v>316</v>
+      </c>
+      <c r="I216" t="s">
+        <v>327</v>
+      </c>
+      <c r="J216">
+        <v>40</v>
+      </c>
+      <c r="K216" t="s">
+        <v>303</v>
+      </c>
+      <c r="N216">
+        <v>2</v>
+      </c>
+      <c r="T216">
+        <v>1</v>
+      </c>
+      <c r="U216">
+        <v>20</v>
+      </c>
+      <c r="V216" t="s">
+        <v>45</v>
+      </c>
+      <c r="W216">
+        <v>1</v>
+      </c>
+      <c r="X216">
+        <v>25998807</v>
+      </c>
+      <c r="Y216">
+        <v>5</v>
+      </c>
+      <c r="Z216" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="217" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>323</v>
+      </c>
+      <c r="B217" t="s">
+        <v>339</v>
+      </c>
+      <c r="C217" t="s">
+        <v>36</v>
+      </c>
+      <c r="D217" t="s">
+        <v>38</v>
+      </c>
+      <c r="E217" t="s">
+        <v>39</v>
+      </c>
+      <c r="F217" t="s">
+        <v>40</v>
+      </c>
+      <c r="G217" t="s">
+        <v>41</v>
+      </c>
+      <c r="H217" t="s">
+        <v>316</v>
+      </c>
+      <c r="I217" t="s">
+        <v>327</v>
+      </c>
+      <c r="J217">
+        <v>41</v>
+      </c>
+      <c r="K217" t="s">
+        <v>303</v>
+      </c>
+      <c r="N217">
+        <v>2</v>
+      </c>
+      <c r="T217">
+        <v>1</v>
+      </c>
+      <c r="U217">
+        <v>20</v>
+      </c>
+      <c r="V217" t="s">
+        <v>45</v>
+      </c>
+      <c r="W217">
+        <v>1</v>
+      </c>
+      <c r="X217">
+        <v>25998807</v>
+      </c>
+      <c r="Y217">
+        <v>5</v>
+      </c>
+      <c r="Z217" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="218" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>324</v>
+      </c>
+      <c r="B218" t="s">
+        <v>339</v>
+      </c>
+      <c r="C218" t="s">
+        <v>36</v>
+      </c>
+      <c r="D218" t="s">
+        <v>38</v>
+      </c>
+      <c r="E218" t="s">
+        <v>39</v>
+      </c>
+      <c r="F218" t="s">
+        <v>40</v>
+      </c>
+      <c r="G218" t="s">
+        <v>41</v>
+      </c>
+      <c r="H218" t="s">
+        <v>316</v>
+      </c>
+      <c r="I218" t="s">
+        <v>327</v>
+      </c>
+      <c r="J218">
+        <v>42</v>
+      </c>
+      <c r="K218" t="s">
+        <v>303</v>
+      </c>
+      <c r="N218">
+        <v>3</v>
+      </c>
+      <c r="T218">
+        <v>1</v>
+      </c>
+      <c r="U218">
+        <v>20</v>
+      </c>
+      <c r="V218" t="s">
+        <v>45</v>
+      </c>
+      <c r="W218">
+        <v>1</v>
+      </c>
+      <c r="X218">
+        <v>25998807</v>
+      </c>
+      <c r="Y218">
+        <v>5</v>
+      </c>
+      <c r="Z218" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="219" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>325</v>
+      </c>
+      <c r="B219" t="s">
+        <v>339</v>
+      </c>
+      <c r="C219" t="s">
+        <v>36</v>
+      </c>
+      <c r="D219" t="s">
+        <v>38</v>
+      </c>
+      <c r="E219" t="s">
+        <v>39</v>
+      </c>
+      <c r="F219" t="s">
+        <v>40</v>
+      </c>
+      <c r="G219" t="s">
+        <v>41</v>
+      </c>
+      <c r="H219" t="s">
+        <v>316</v>
+      </c>
+      <c r="I219" t="s">
+        <v>327</v>
+      </c>
+      <c r="J219">
+        <v>43</v>
+      </c>
+      <c r="K219" t="s">
+        <v>303</v>
+      </c>
+      <c r="N219">
+        <v>3</v>
+      </c>
+      <c r="T219">
+        <v>1</v>
+      </c>
+      <c r="U219">
+        <v>20</v>
+      </c>
+      <c r="V219" t="s">
+        <v>45</v>
+      </c>
+      <c r="W219">
+        <v>1</v>
+      </c>
+      <c r="X219">
+        <v>25998807</v>
+      </c>
+      <c r="Y219">
+        <v>5</v>
+      </c>
+      <c r="Z219" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="220" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>326</v>
+      </c>
+      <c r="B220" t="s">
+        <v>339</v>
+      </c>
+      <c r="C220" t="s">
+        <v>36</v>
+      </c>
+      <c r="D220" t="s">
+        <v>38</v>
+      </c>
+      <c r="E220" t="s">
+        <v>39</v>
+      </c>
+      <c r="F220" t="s">
+        <v>40</v>
+      </c>
+      <c r="G220" t="s">
+        <v>41</v>
+      </c>
+      <c r="H220" t="s">
+        <v>316</v>
+      </c>
+      <c r="I220" t="s">
+        <v>327</v>
+      </c>
+      <c r="J220">
+        <v>44</v>
+      </c>
+      <c r="K220" t="s">
+        <v>303</v>
+      </c>
+      <c r="N220">
+        <v>2</v>
+      </c>
+      <c r="T220">
+        <v>1</v>
+      </c>
+      <c r="U220">
+        <v>20</v>
+      </c>
+      <c r="V220" t="s">
+        <v>45</v>
+      </c>
+      <c r="W220">
+        <v>1</v>
+      </c>
+      <c r="X220">
+        <v>25998807</v>
+      </c>
+      <c r="Y220">
+        <v>5</v>
+      </c>
+      <c r="Z220" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="221" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>340</v>
+      </c>
+      <c r="B221" t="s">
+        <v>339</v>
+      </c>
+      <c r="C221" t="s">
+        <v>36</v>
+      </c>
+      <c r="D221" t="s">
+        <v>38</v>
+      </c>
+      <c r="E221" t="s">
+        <v>39</v>
+      </c>
+      <c r="F221" t="s">
+        <v>40</v>
+      </c>
+      <c r="G221" t="s">
+        <v>41</v>
+      </c>
+      <c r="H221" t="s">
+        <v>316</v>
+      </c>
+      <c r="I221" t="s">
+        <v>327</v>
+      </c>
+      <c r="J221">
+        <v>45</v>
+      </c>
+      <c r="K221" t="s">
+        <v>303</v>
+      </c>
+      <c r="N221">
+        <v>1</v>
+      </c>
+      <c r="T221">
+        <v>1</v>
+      </c>
+      <c r="U221">
+        <v>20</v>
+      </c>
+      <c r="V221" t="s">
+        <v>45</v>
+      </c>
+      <c r="W221">
+        <v>1</v>
+      </c>
+      <c r="X221">
+        <v>25998807</v>
+      </c>
+      <c r="Y221">
+        <v>5</v>
+      </c>
+      <c r="Z221" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="222" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>328</v>
+      </c>
+      <c r="B222" t="s">
+        <v>338</v>
+      </c>
+      <c r="C222" t="s">
+        <v>36</v>
+      </c>
+      <c r="D222" t="s">
+        <v>37</v>
+      </c>
+      <c r="E222" t="s">
+        <v>39</v>
+      </c>
+      <c r="F222" t="s">
+        <v>40</v>
+      </c>
+      <c r="G222" t="s">
+        <v>41</v>
+      </c>
+      <c r="H222" t="s">
+        <v>316</v>
+      </c>
+      <c r="I222" t="s">
+        <v>43</v>
+      </c>
+      <c r="J222">
+        <v>36</v>
+      </c>
+      <c r="K222" t="s">
+        <v>303</v>
+      </c>
+      <c r="N222">
+        <v>2</v>
+      </c>
+      <c r="T222">
+        <v>1</v>
+      </c>
+      <c r="U222">
+        <v>20</v>
+      </c>
+      <c r="V222" t="s">
+        <v>45</v>
+      </c>
+      <c r="W222">
+        <v>1</v>
+      </c>
+      <c r="X222">
+        <v>25998807</v>
+      </c>
+      <c r="Y222">
+        <v>5</v>
+      </c>
+      <c r="Z222" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="223" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>329</v>
+      </c>
+      <c r="B223" t="s">
+        <v>338</v>
+      </c>
+      <c r="C223" t="s">
+        <v>36</v>
+      </c>
+      <c r="D223" t="s">
+        <v>37</v>
+      </c>
+      <c r="E223" t="s">
+        <v>39</v>
+      </c>
+      <c r="F223" t="s">
+        <v>40</v>
+      </c>
+      <c r="G223" t="s">
+        <v>41</v>
+      </c>
+      <c r="H223" t="s">
+        <v>316</v>
+      </c>
+      <c r="I223" t="s">
+        <v>43</v>
+      </c>
+      <c r="J223">
+        <v>37</v>
+      </c>
+      <c r="K223" t="s">
+        <v>303</v>
+      </c>
+      <c r="N223">
+        <v>3</v>
+      </c>
+      <c r="T223">
+        <v>1</v>
+      </c>
+      <c r="U223">
+        <v>20</v>
+      </c>
+      <c r="V223" t="s">
+        <v>45</v>
+      </c>
+      <c r="W223">
+        <v>1</v>
+      </c>
+      <c r="X223">
+        <v>25998807</v>
+      </c>
+      <c r="Y223">
+        <v>5</v>
+      </c>
+      <c r="Z223" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="224" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>330</v>
+      </c>
+      <c r="B224" t="s">
+        <v>338</v>
+      </c>
+      <c r="C224" t="s">
+        <v>36</v>
+      </c>
+      <c r="D224" t="s">
+        <v>37</v>
+      </c>
+      <c r="E224" t="s">
+        <v>39</v>
+      </c>
+      <c r="F224" t="s">
+        <v>40</v>
+      </c>
+      <c r="G224" t="s">
+        <v>41</v>
+      </c>
+      <c r="H224" t="s">
+        <v>316</v>
+      </c>
+      <c r="I224" t="s">
+        <v>43</v>
+      </c>
+      <c r="J224">
+        <v>38</v>
+      </c>
+      <c r="K224" t="s">
+        <v>303</v>
+      </c>
+      <c r="N224">
+        <v>4</v>
+      </c>
+      <c r="T224">
+        <v>1</v>
+      </c>
+      <c r="U224">
+        <v>20</v>
+      </c>
+      <c r="V224" t="s">
+        <v>45</v>
+      </c>
+      <c r="W224">
+        <v>1</v>
+      </c>
+      <c r="X224">
+        <v>25998807</v>
+      </c>
+      <c r="Y224">
+        <v>5</v>
+      </c>
+      <c r="Z224" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="225" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>331</v>
+      </c>
+      <c r="B225" t="s">
+        <v>338</v>
+      </c>
+      <c r="C225" t="s">
+        <v>36</v>
+      </c>
+      <c r="D225" t="s">
+        <v>37</v>
+      </c>
+      <c r="E225" t="s">
+        <v>39</v>
+      </c>
+      <c r="F225" t="s">
+        <v>40</v>
+      </c>
+      <c r="G225" t="s">
+        <v>41</v>
+      </c>
+      <c r="H225" t="s">
+        <v>316</v>
+      </c>
+      <c r="I225" t="s">
+        <v>43</v>
+      </c>
+      <c r="J225">
+        <v>39</v>
+      </c>
+      <c r="K225" t="s">
+        <v>303</v>
+      </c>
+      <c r="N225">
+        <v>2</v>
+      </c>
+      <c r="T225">
+        <v>1</v>
+      </c>
+      <c r="U225">
+        <v>20</v>
+      </c>
+      <c r="V225" t="s">
+        <v>45</v>
+      </c>
+      <c r="W225">
+        <v>1</v>
+      </c>
+      <c r="X225">
+        <v>25998807</v>
+      </c>
+      <c r="Y225">
+        <v>5</v>
+      </c>
+      <c r="Z225" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="226" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>332</v>
+      </c>
+      <c r="B226" t="s">
+        <v>338</v>
+      </c>
+      <c r="C226" t="s">
+        <v>36</v>
+      </c>
+      <c r="D226" t="s">
+        <v>37</v>
+      </c>
+      <c r="E226" t="s">
+        <v>39</v>
+      </c>
+      <c r="F226" t="s">
+        <v>40</v>
+      </c>
+      <c r="G226" t="s">
+        <v>41</v>
+      </c>
+      <c r="H226" t="s">
+        <v>316</v>
+      </c>
+      <c r="I226" t="s">
+        <v>43</v>
+      </c>
+      <c r="J226">
+        <v>40</v>
+      </c>
+      <c r="K226" t="s">
+        <v>303</v>
+      </c>
+      <c r="N226">
+        <v>2</v>
+      </c>
+      <c r="T226">
+        <v>1</v>
+      </c>
+      <c r="U226">
+        <v>20</v>
+      </c>
+      <c r="V226" t="s">
+        <v>45</v>
+      </c>
+      <c r="W226">
+        <v>1</v>
+      </c>
+      <c r="X226">
+        <v>25998807</v>
+      </c>
+      <c r="Y226">
+        <v>5</v>
+      </c>
+      <c r="Z226" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="227" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>333</v>
+      </c>
+      <c r="B227" t="s">
+        <v>338</v>
+      </c>
+      <c r="C227" t="s">
+        <v>36</v>
+      </c>
+      <c r="D227" t="s">
+        <v>38</v>
+      </c>
+      <c r="E227" t="s">
+        <v>39</v>
+      </c>
+      <c r="F227" t="s">
+        <v>40</v>
+      </c>
+      <c r="G227" t="s">
+        <v>41</v>
+      </c>
+      <c r="H227" t="s">
+        <v>316</v>
+      </c>
+      <c r="I227" t="s">
+        <v>43</v>
+      </c>
+      <c r="J227">
+        <v>41</v>
+      </c>
+      <c r="K227" t="s">
+        <v>303</v>
+      </c>
+      <c r="N227">
+        <v>2</v>
+      </c>
+      <c r="T227">
+        <v>1</v>
+      </c>
+      <c r="U227">
+        <v>20</v>
+      </c>
+      <c r="V227" t="s">
+        <v>45</v>
+      </c>
+      <c r="W227">
+        <v>1</v>
+      </c>
+      <c r="X227">
+        <v>25998807</v>
+      </c>
+      <c r="Y227">
+        <v>5</v>
+      </c>
+      <c r="Z227" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="228" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>334</v>
+      </c>
+      <c r="B228" t="s">
+        <v>338</v>
+      </c>
+      <c r="C228" t="s">
+        <v>36</v>
+      </c>
+      <c r="D228" t="s">
+        <v>38</v>
+      </c>
+      <c r="E228" t="s">
+        <v>39</v>
+      </c>
+      <c r="F228" t="s">
+        <v>40</v>
+      </c>
+      <c r="G228" t="s">
+        <v>41</v>
+      </c>
+      <c r="H228" t="s">
+        <v>316</v>
+      </c>
+      <c r="I228" t="s">
+        <v>43</v>
+      </c>
+      <c r="J228">
+        <v>42</v>
+      </c>
+      <c r="K228" t="s">
+        <v>303</v>
+      </c>
+      <c r="N228">
+        <v>3</v>
+      </c>
+      <c r="T228">
+        <v>1</v>
+      </c>
+      <c r="U228">
+        <v>20</v>
+      </c>
+      <c r="V228" t="s">
+        <v>45</v>
+      </c>
+      <c r="W228">
+        <v>1</v>
+      </c>
+      <c r="X228">
+        <v>25998807</v>
+      </c>
+      <c r="Y228">
+        <v>5</v>
+      </c>
+      <c r="Z228" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="229" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>335</v>
+      </c>
+      <c r="B229" t="s">
+        <v>338</v>
+      </c>
+      <c r="C229" t="s">
+        <v>36</v>
+      </c>
+      <c r="D229" t="s">
+        <v>38</v>
+      </c>
+      <c r="E229" t="s">
+        <v>39</v>
+      </c>
+      <c r="F229" t="s">
+        <v>40</v>
+      </c>
+      <c r="G229" t="s">
+        <v>41</v>
+      </c>
+      <c r="H229" t="s">
+        <v>316</v>
+      </c>
+      <c r="I229" t="s">
+        <v>43</v>
+      </c>
+      <c r="J229">
+        <v>43</v>
+      </c>
+      <c r="K229" t="s">
+        <v>303</v>
+      </c>
+      <c r="N229">
+        <v>3</v>
+      </c>
+      <c r="T229">
+        <v>1</v>
+      </c>
+      <c r="U229">
+        <v>20</v>
+      </c>
+      <c r="V229" t="s">
+        <v>45</v>
+      </c>
+      <c r="W229">
+        <v>1</v>
+      </c>
+      <c r="X229">
+        <v>25998807</v>
+      </c>
+      <c r="Y229">
+        <v>5</v>
+      </c>
+      <c r="Z229" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="230" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>336</v>
+      </c>
+      <c r="B230" t="s">
+        <v>338</v>
+      </c>
+      <c r="C230" t="s">
+        <v>36</v>
+      </c>
+      <c r="D230" t="s">
+        <v>38</v>
+      </c>
+      <c r="E230" t="s">
+        <v>39</v>
+      </c>
+      <c r="F230" t="s">
+        <v>40</v>
+      </c>
+      <c r="G230" t="s">
+        <v>41</v>
+      </c>
+      <c r="H230" t="s">
+        <v>316</v>
+      </c>
+      <c r="I230" t="s">
+        <v>43</v>
+      </c>
+      <c r="J230">
+        <v>44</v>
+      </c>
+      <c r="K230" t="s">
+        <v>303</v>
+      </c>
+      <c r="N230">
+        <v>2</v>
+      </c>
+      <c r="T230">
+        <v>1</v>
+      </c>
+      <c r="U230">
+        <v>20</v>
+      </c>
+      <c r="V230" t="s">
+        <v>45</v>
+      </c>
+      <c r="W230">
+        <v>1</v>
+      </c>
+      <c r="X230">
+        <v>25998807</v>
+      </c>
+      <c r="Y230">
+        <v>5</v>
+      </c>
+      <c r="Z230" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="231" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>337</v>
+      </c>
+      <c r="B231" t="s">
+        <v>338</v>
+      </c>
+      <c r="C231" t="s">
+        <v>36</v>
+      </c>
+      <c r="D231" t="s">
+        <v>38</v>
+      </c>
+      <c r="E231" t="s">
+        <v>39</v>
+      </c>
+      <c r="F231" t="s">
+        <v>40</v>
+      </c>
+      <c r="G231" t="s">
+        <v>41</v>
+      </c>
+      <c r="H231" t="s">
+        <v>316</v>
+      </c>
+      <c r="I231" t="s">
+        <v>43</v>
+      </c>
+      <c r="J231">
+        <v>45</v>
+      </c>
+      <c r="K231" t="s">
+        <v>303</v>
+      </c>
+      <c r="N231">
+        <v>1</v>
+      </c>
+      <c r="T231">
+        <v>1</v>
+      </c>
+      <c r="U231">
+        <v>20</v>
+      </c>
+      <c r="V231" t="s">
+        <v>45</v>
+      </c>
+      <c r="W231">
+        <v>1</v>
+      </c>
+      <c r="X231">
+        <v>25998807</v>
+      </c>
+      <c r="Y231">
+        <v>5</v>
+      </c>
+      <c r="Z231" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="232" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>341</v>
+      </c>
+      <c r="B232" t="s">
+        <v>346</v>
+      </c>
+      <c r="C232" t="s">
+        <v>36</v>
+      </c>
+      <c r="D232" t="s">
+        <v>37</v>
+      </c>
+      <c r="E232" t="s">
+        <v>39</v>
+      </c>
+      <c r="F232" t="s">
+        <v>40</v>
+      </c>
+      <c r="G232" t="s">
+        <v>41</v>
+      </c>
+      <c r="H232" t="s">
+        <v>316</v>
+      </c>
+      <c r="I232" t="s">
+        <v>347</v>
+      </c>
+      <c r="J232">
+        <v>36</v>
+      </c>
+      <c r="K232" t="s">
+        <v>303</v>
+      </c>
+      <c r="N232">
+        <v>2</v>
+      </c>
+      <c r="T232">
+        <v>1</v>
+      </c>
+      <c r="U232">
+        <v>20</v>
+      </c>
+      <c r="V232" t="s">
+        <v>45</v>
+      </c>
+      <c r="W232">
+        <v>1</v>
+      </c>
+      <c r="X232">
+        <v>25998807</v>
+      </c>
+      <c r="Y232">
+        <v>5</v>
+      </c>
+      <c r="Z232" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="233" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>342</v>
+      </c>
+      <c r="B233" t="s">
+        <v>346</v>
+      </c>
+      <c r="C233" t="s">
+        <v>36</v>
+      </c>
+      <c r="D233" t="s">
+        <v>37</v>
+      </c>
+      <c r="E233" t="s">
+        <v>39</v>
+      </c>
+      <c r="F233" t="s">
+        <v>40</v>
+      </c>
+      <c r="G233" t="s">
+        <v>41</v>
+      </c>
+      <c r="H233" t="s">
+        <v>316</v>
+      </c>
+      <c r="I233" t="s">
+        <v>347</v>
+      </c>
+      <c r="J233">
+        <v>37</v>
+      </c>
+      <c r="K233" t="s">
+        <v>303</v>
+      </c>
+      <c r="N233">
+        <v>3</v>
+      </c>
+      <c r="T233">
+        <v>1</v>
+      </c>
+      <c r="U233">
+        <v>20</v>
+      </c>
+      <c r="V233" t="s">
+        <v>45</v>
+      </c>
+      <c r="W233">
+        <v>1</v>
+      </c>
+      <c r="X233">
+        <v>25998807</v>
+      </c>
+      <c r="Y233">
+        <v>5</v>
+      </c>
+      <c r="Z233" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="234" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>343</v>
+      </c>
+      <c r="B234" t="s">
+        <v>346</v>
+      </c>
+      <c r="C234" t="s">
+        <v>36</v>
+      </c>
+      <c r="D234" t="s">
+        <v>37</v>
+      </c>
+      <c r="E234" t="s">
+        <v>39</v>
+      </c>
+      <c r="F234" t="s">
+        <v>40</v>
+      </c>
+      <c r="G234" t="s">
+        <v>41</v>
+      </c>
+      <c r="H234" t="s">
+        <v>316</v>
+      </c>
+      <c r="I234" t="s">
+        <v>347</v>
+      </c>
+      <c r="J234">
+        <v>38</v>
+      </c>
+      <c r="K234" t="s">
+        <v>303</v>
+      </c>
+      <c r="N234">
+        <v>4</v>
+      </c>
+      <c r="T234">
+        <v>1</v>
+      </c>
+      <c r="U234">
+        <v>20</v>
+      </c>
+      <c r="V234" t="s">
+        <v>45</v>
+      </c>
+      <c r="W234">
+        <v>1</v>
+      </c>
+      <c r="X234">
+        <v>25998807</v>
+      </c>
+      <c r="Y234">
+        <v>5</v>
+      </c>
+      <c r="Z234" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="235" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>344</v>
+      </c>
+      <c r="B235" t="s">
+        <v>346</v>
+      </c>
+      <c r="C235" t="s">
+        <v>36</v>
+      </c>
+      <c r="D235" t="s">
+        <v>37</v>
+      </c>
+      <c r="E235" t="s">
+        <v>39</v>
+      </c>
+      <c r="F235" t="s">
+        <v>40</v>
+      </c>
+      <c r="G235" t="s">
+        <v>41</v>
+      </c>
+      <c r="H235" t="s">
+        <v>316</v>
+      </c>
+      <c r="I235" t="s">
+        <v>347</v>
+      </c>
+      <c r="J235">
+        <v>39</v>
+      </c>
+      <c r="K235" t="s">
+        <v>303</v>
+      </c>
+      <c r="N235">
+        <v>2</v>
+      </c>
+      <c r="T235">
+        <v>1</v>
+      </c>
+      <c r="U235">
+        <v>20</v>
+      </c>
+      <c r="V235" t="s">
+        <v>45</v>
+      </c>
+      <c r="W235">
+        <v>1</v>
+      </c>
+      <c r="X235">
+        <v>25998807</v>
+      </c>
+      <c r="Y235">
+        <v>5</v>
+      </c>
+      <c r="Z235" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="236" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>345</v>
+      </c>
+      <c r="B236" t="s">
+        <v>346</v>
+      </c>
+      <c r="C236" t="s">
+        <v>36</v>
+      </c>
+      <c r="D236" t="s">
+        <v>37</v>
+      </c>
+      <c r="E236" t="s">
+        <v>39</v>
+      </c>
+      <c r="F236" t="s">
+        <v>40</v>
+      </c>
+      <c r="G236" t="s">
+        <v>41</v>
+      </c>
+      <c r="H236" t="s">
+        <v>316</v>
+      </c>
+      <c r="I236" t="s">
+        <v>347</v>
+      </c>
+      <c r="J236">
+        <v>40</v>
+      </c>
+      <c r="K236" t="s">
+        <v>303</v>
+      </c>
+      <c r="N236">
+        <v>1</v>
+      </c>
+      <c r="T236">
+        <v>1</v>
+      </c>
+      <c r="U236">
+        <v>20</v>
+      </c>
+      <c r="V236" t="s">
+        <v>45</v>
+      </c>
+      <c r="W236">
+        <v>1</v>
+      </c>
+      <c r="X236">
+        <v>25998807</v>
+      </c>
+      <c r="Y236">
+        <v>5</v>
+      </c>
+      <c r="Z236" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="237" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>348</v>
+      </c>
+      <c r="B237" t="s">
+        <v>358</v>
+      </c>
+      <c r="C237" t="s">
+        <v>36</v>
+      </c>
+      <c r="D237" t="s">
+        <v>37</v>
+      </c>
+      <c r="E237" t="s">
+        <v>39</v>
+      </c>
+      <c r="F237" t="s">
+        <v>40</v>
+      </c>
+      <c r="G237" t="s">
+        <v>41</v>
+      </c>
+      <c r="H237" t="s">
+        <v>316</v>
+      </c>
+      <c r="I237" t="s">
+        <v>359</v>
+      </c>
+      <c r="J237">
+        <v>36</v>
+      </c>
+      <c r="K237" t="s">
+        <v>303</v>
+      </c>
+      <c r="N237">
+        <v>2</v>
+      </c>
+      <c r="T237">
+        <v>1</v>
+      </c>
+      <c r="U237">
+        <v>20</v>
+      </c>
+      <c r="V237" t="s">
+        <v>45</v>
+      </c>
+      <c r="W237">
+        <v>1</v>
+      </c>
+      <c r="X237">
+        <v>25998807</v>
+      </c>
+      <c r="Y237">
+        <v>5</v>
+      </c>
+      <c r="Z237" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="238" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>349</v>
+      </c>
+      <c r="B238" t="s">
+        <v>358</v>
+      </c>
+      <c r="C238" t="s">
+        <v>36</v>
+      </c>
+      <c r="D238" t="s">
+        <v>37</v>
+      </c>
+      <c r="E238" t="s">
+        <v>39</v>
+      </c>
+      <c r="F238" t="s">
+        <v>40</v>
+      </c>
+      <c r="G238" t="s">
+        <v>41</v>
+      </c>
+      <c r="H238" t="s">
+        <v>316</v>
+      </c>
+      <c r="I238" t="s">
+        <v>359</v>
+      </c>
+      <c r="J238">
+        <v>37</v>
+      </c>
+      <c r="K238" t="s">
+        <v>303</v>
+      </c>
+      <c r="N238">
+        <v>3</v>
+      </c>
+      <c r="T238">
+        <v>1</v>
+      </c>
+      <c r="U238">
+        <v>20</v>
+      </c>
+      <c r="V238" t="s">
+        <v>45</v>
+      </c>
+      <c r="W238">
+        <v>1</v>
+      </c>
+      <c r="X238">
+        <v>25998807</v>
+      </c>
+      <c r="Y238">
+        <v>5</v>
+      </c>
+      <c r="Z238" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="239" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>350</v>
+      </c>
+      <c r="B239" t="s">
+        <v>358</v>
+      </c>
+      <c r="C239" t="s">
+        <v>36</v>
+      </c>
+      <c r="D239" t="s">
+        <v>37</v>
+      </c>
+      <c r="E239" t="s">
+        <v>39</v>
+      </c>
+      <c r="F239" t="s">
+        <v>40</v>
+      </c>
+      <c r="G239" t="s">
+        <v>41</v>
+      </c>
+      <c r="H239" t="s">
+        <v>316</v>
+      </c>
+      <c r="I239" t="s">
+        <v>359</v>
+      </c>
+      <c r="J239">
+        <v>38</v>
+      </c>
+      <c r="K239" t="s">
+        <v>303</v>
+      </c>
+      <c r="N239">
+        <v>4</v>
+      </c>
+      <c r="T239">
+        <v>1</v>
+      </c>
+      <c r="U239">
+        <v>20</v>
+      </c>
+      <c r="V239" t="s">
+        <v>45</v>
+      </c>
+      <c r="W239">
+        <v>1</v>
+      </c>
+      <c r="X239">
+        <v>25998807</v>
+      </c>
+      <c r="Y239">
+        <v>5</v>
+      </c>
+      <c r="Z239" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="240" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>351</v>
+      </c>
+      <c r="B240" t="s">
+        <v>358</v>
+      </c>
+      <c r="C240" t="s">
+        <v>36</v>
+      </c>
+      <c r="D240" t="s">
+        <v>37</v>
+      </c>
+      <c r="E240" t="s">
+        <v>39</v>
+      </c>
+      <c r="F240" t="s">
+        <v>40</v>
+      </c>
+      <c r="G240" t="s">
+        <v>41</v>
+      </c>
+      <c r="H240" t="s">
+        <v>316</v>
+      </c>
+      <c r="I240" t="s">
+        <v>359</v>
+      </c>
+      <c r="J240">
+        <v>39</v>
+      </c>
+      <c r="K240" t="s">
+        <v>303</v>
+      </c>
+      <c r="N240">
+        <v>2</v>
+      </c>
+      <c r="T240">
+        <v>1</v>
+      </c>
+      <c r="U240">
+        <v>20</v>
+      </c>
+      <c r="V240" t="s">
+        <v>45</v>
+      </c>
+      <c r="W240">
+        <v>1</v>
+      </c>
+      <c r="X240">
+        <v>25998807</v>
+      </c>
+      <c r="Y240">
+        <v>5</v>
+      </c>
+      <c r="Z240" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="241" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>352</v>
+      </c>
+      <c r="B241" t="s">
+        <v>358</v>
+      </c>
+      <c r="C241" t="s">
+        <v>36</v>
+      </c>
+      <c r="D241" t="s">
+        <v>37</v>
+      </c>
+      <c r="E241" t="s">
+        <v>39</v>
+      </c>
+      <c r="F241" t="s">
+        <v>40</v>
+      </c>
+      <c r="G241" t="s">
+        <v>41</v>
+      </c>
+      <c r="H241" t="s">
+        <v>316</v>
+      </c>
+      <c r="I241" t="s">
+        <v>359</v>
+      </c>
+      <c r="J241">
+        <v>40</v>
+      </c>
+      <c r="K241" t="s">
+        <v>303</v>
+      </c>
+      <c r="N241">
+        <v>2</v>
+      </c>
+      <c r="T241">
+        <v>1</v>
+      </c>
+      <c r="U241">
+        <v>20</v>
+      </c>
+      <c r="V241" t="s">
+        <v>45</v>
+      </c>
+      <c r="W241">
+        <v>1</v>
+      </c>
+      <c r="X241">
+        <v>25998807</v>
+      </c>
+      <c r="Y241">
+        <v>5</v>
+      </c>
+      <c r="Z241" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="242" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>353</v>
+      </c>
+      <c r="B242" t="s">
+        <v>358</v>
+      </c>
+      <c r="C242" t="s">
+        <v>36</v>
+      </c>
+      <c r="D242" t="s">
+        <v>38</v>
+      </c>
+      <c r="E242" t="s">
+        <v>39</v>
+      </c>
+      <c r="F242" t="s">
+        <v>40</v>
+      </c>
+      <c r="G242" t="s">
+        <v>41</v>
+      </c>
+      <c r="H242" t="s">
+        <v>316</v>
+      </c>
+      <c r="I242" t="s">
+        <v>359</v>
+      </c>
+      <c r="J242">
+        <v>41</v>
+      </c>
+      <c r="K242" t="s">
+        <v>303</v>
+      </c>
+      <c r="N242">
+        <v>2</v>
+      </c>
+      <c r="T242">
+        <v>1</v>
+      </c>
+      <c r="U242">
+        <v>20</v>
+      </c>
+      <c r="V242" t="s">
+        <v>45</v>
+      </c>
+      <c r="W242">
+        <v>1</v>
+      </c>
+      <c r="X242">
+        <v>25998807</v>
+      </c>
+      <c r="Y242">
+        <v>5</v>
+      </c>
+      <c r="Z242" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="243" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>354</v>
+      </c>
+      <c r="B243" t="s">
+        <v>358</v>
+      </c>
+      <c r="C243" t="s">
+        <v>36</v>
+      </c>
+      <c r="D243" t="s">
+        <v>38</v>
+      </c>
+      <c r="E243" t="s">
+        <v>39</v>
+      </c>
+      <c r="F243" t="s">
+        <v>40</v>
+      </c>
+      <c r="G243" t="s">
+        <v>41</v>
+      </c>
+      <c r="H243" t="s">
+        <v>316</v>
+      </c>
+      <c r="I243" t="s">
+        <v>359</v>
+      </c>
+      <c r="J243">
+        <v>42</v>
+      </c>
+      <c r="K243" t="s">
+        <v>303</v>
+      </c>
+      <c r="N243">
+        <v>3</v>
+      </c>
+      <c r="T243">
+        <v>1</v>
+      </c>
+      <c r="U243">
+        <v>20</v>
+      </c>
+      <c r="V243" t="s">
+        <v>45</v>
+      </c>
+      <c r="W243">
+        <v>1</v>
+      </c>
+      <c r="X243">
+        <v>25998807</v>
+      </c>
+      <c r="Y243">
+        <v>5</v>
+      </c>
+      <c r="Z243" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="244" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>355</v>
+      </c>
+      <c r="B244" t="s">
+        <v>358</v>
+      </c>
+      <c r="C244" t="s">
+        <v>36</v>
+      </c>
+      <c r="D244" t="s">
+        <v>38</v>
+      </c>
+      <c r="E244" t="s">
+        <v>39</v>
+      </c>
+      <c r="F244" t="s">
+        <v>40</v>
+      </c>
+      <c r="G244" t="s">
+        <v>41</v>
+      </c>
+      <c r="H244" t="s">
+        <v>316</v>
+      </c>
+      <c r="I244" t="s">
+        <v>359</v>
+      </c>
+      <c r="J244">
+        <v>43</v>
+      </c>
+      <c r="K244" t="s">
+        <v>303</v>
+      </c>
+      <c r="N244">
+        <v>3</v>
+      </c>
+      <c r="T244">
+        <v>1</v>
+      </c>
+      <c r="U244">
+        <v>20</v>
+      </c>
+      <c r="V244" t="s">
+        <v>45</v>
+      </c>
+      <c r="W244">
+        <v>1</v>
+      </c>
+      <c r="X244">
+        <v>25998807</v>
+      </c>
+      <c r="Y244">
+        <v>5</v>
+      </c>
+      <c r="Z244" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="245" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>356</v>
+      </c>
+      <c r="B245" t="s">
+        <v>358</v>
+      </c>
+      <c r="C245" t="s">
+        <v>36</v>
+      </c>
+      <c r="D245" t="s">
+        <v>38</v>
+      </c>
+      <c r="E245" t="s">
+        <v>39</v>
+      </c>
+      <c r="F245" t="s">
+        <v>40</v>
+      </c>
+      <c r="G245" t="s">
+        <v>41</v>
+      </c>
+      <c r="H245" t="s">
+        <v>316</v>
+      </c>
+      <c r="I245" t="s">
+        <v>359</v>
+      </c>
+      <c r="J245">
+        <v>44</v>
+      </c>
+      <c r="K245" t="s">
+        <v>303</v>
+      </c>
+      <c r="N245">
+        <v>2</v>
+      </c>
+      <c r="T245">
+        <v>1</v>
+      </c>
+      <c r="U245">
+        <v>20</v>
+      </c>
+      <c r="V245" t="s">
+        <v>45</v>
+      </c>
+      <c r="W245">
+        <v>1</v>
+      </c>
+      <c r="X245">
+        <v>25998807</v>
+      </c>
+      <c r="Y245">
+        <v>5</v>
+      </c>
+      <c r="Z245" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="246" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>357</v>
+      </c>
+      <c r="B246" t="s">
+        <v>358</v>
+      </c>
+      <c r="C246" t="s">
+        <v>36</v>
+      </c>
+      <c r="D246" t="s">
+        <v>38</v>
+      </c>
+      <c r="E246" t="s">
+        <v>39</v>
+      </c>
+      <c r="F246" t="s">
+        <v>40</v>
+      </c>
+      <c r="G246" t="s">
+        <v>41</v>
+      </c>
+      <c r="H246" t="s">
+        <v>316</v>
+      </c>
+      <c r="I246" t="s">
+        <v>359</v>
+      </c>
+      <c r="J246">
+        <v>45</v>
+      </c>
+      <c r="K246" t="s">
+        <v>303</v>
+      </c>
+      <c r="N246">
+        <v>1</v>
+      </c>
+      <c r="T246">
+        <v>1</v>
+      </c>
+      <c r="U246">
+        <v>20</v>
+      </c>
+      <c r="V246" t="s">
+        <v>45</v>
+      </c>
+      <c r="W246">
+        <v>1</v>
+      </c>
+      <c r="X246">
+        <v>25998807</v>
+      </c>
+      <c r="Y246">
+        <v>5</v>
+      </c>
+      <c r="Z246" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="247" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>360</v>
+      </c>
+      <c r="B247" t="s">
+        <v>365</v>
+      </c>
+      <c r="C247" t="s">
+        <v>36</v>
+      </c>
+      <c r="D247" t="s">
+        <v>37</v>
+      </c>
+      <c r="E247" t="s">
+        <v>39</v>
+      </c>
+      <c r="F247" t="s">
+        <v>40</v>
+      </c>
+      <c r="G247" t="s">
+        <v>41</v>
+      </c>
+      <c r="H247" t="s">
+        <v>366</v>
+      </c>
+      <c r="I247" t="s">
+        <v>367</v>
+      </c>
+      <c r="J247">
+        <v>36</v>
+      </c>
+      <c r="K247" t="s">
+        <v>44</v>
+      </c>
+      <c r="N247">
+        <v>2</v>
+      </c>
+      <c r="T247">
+        <v>1</v>
+      </c>
+      <c r="U247">
+        <v>20</v>
+      </c>
+      <c r="V247" t="s">
+        <v>45</v>
+      </c>
+      <c r="W247">
+        <v>1</v>
+      </c>
+      <c r="X247">
+        <v>25998807</v>
+      </c>
+      <c r="Y247">
+        <v>5</v>
+      </c>
+      <c r="Z247" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="248" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>361</v>
+      </c>
+      <c r="B248" t="s">
+        <v>365</v>
+      </c>
+      <c r="C248" t="s">
+        <v>36</v>
+      </c>
+      <c r="D248" t="s">
+        <v>37</v>
+      </c>
+      <c r="E248" t="s">
+        <v>39</v>
+      </c>
+      <c r="F248" t="s">
+        <v>40</v>
+      </c>
+      <c r="G248" t="s">
+        <v>41</v>
+      </c>
+      <c r="H248" t="s">
+        <v>366</v>
+      </c>
+      <c r="I248" t="s">
+        <v>367</v>
+      </c>
+      <c r="J248">
+        <v>37</v>
+      </c>
+      <c r="K248" t="s">
+        <v>44</v>
+      </c>
+      <c r="N248">
+        <v>3</v>
+      </c>
+      <c r="T248">
+        <v>1</v>
+      </c>
+      <c r="U248">
+        <v>20</v>
+      </c>
+      <c r="V248" t="s">
+        <v>45</v>
+      </c>
+      <c r="W248">
+        <v>1</v>
+      </c>
+      <c r="X248">
+        <v>25998807</v>
+      </c>
+      <c r="Y248">
+        <v>5</v>
+      </c>
+      <c r="Z248" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="249" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>362</v>
+      </c>
+      <c r="B249" t="s">
+        <v>365</v>
+      </c>
+      <c r="C249" t="s">
+        <v>36</v>
+      </c>
+      <c r="D249" t="s">
+        <v>37</v>
+      </c>
+      <c r="E249" t="s">
+        <v>39</v>
+      </c>
+      <c r="F249" t="s">
+        <v>40</v>
+      </c>
+      <c r="G249" t="s">
+        <v>41</v>
+      </c>
+      <c r="H249" t="s">
+        <v>366</v>
+      </c>
+      <c r="I249" t="s">
+        <v>367</v>
+      </c>
+      <c r="J249">
+        <v>38</v>
+      </c>
+      <c r="K249" t="s">
+        <v>44</v>
+      </c>
+      <c r="N249">
+        <v>4</v>
+      </c>
+      <c r="T249">
+        <v>1</v>
+      </c>
+      <c r="U249">
+        <v>20</v>
+      </c>
+      <c r="V249" t="s">
+        <v>45</v>
+      </c>
+      <c r="W249">
+        <v>1</v>
+      </c>
+      <c r="X249">
+        <v>25998807</v>
+      </c>
+      <c r="Y249">
+        <v>5</v>
+      </c>
+      <c r="Z249" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="250" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>363</v>
+      </c>
+      <c r="B250" t="s">
+        <v>365</v>
+      </c>
+      <c r="C250" t="s">
+        <v>36</v>
+      </c>
+      <c r="D250" t="s">
+        <v>37</v>
+      </c>
+      <c r="E250" t="s">
+        <v>39</v>
+      </c>
+      <c r="F250" t="s">
+        <v>40</v>
+      </c>
+      <c r="G250" t="s">
+        <v>41</v>
+      </c>
+      <c r="H250" t="s">
+        <v>366</v>
+      </c>
+      <c r="I250" t="s">
+        <v>367</v>
+      </c>
+      <c r="J250">
+        <v>39</v>
+      </c>
+      <c r="K250" t="s">
+        <v>44</v>
+      </c>
+      <c r="N250">
+        <v>2</v>
+      </c>
+      <c r="T250">
+        <v>1</v>
+      </c>
+      <c r="U250">
+        <v>20</v>
+      </c>
+      <c r="V250" t="s">
+        <v>45</v>
+      </c>
+      <c r="W250">
+        <v>1</v>
+      </c>
+      <c r="X250">
+        <v>25998807</v>
+      </c>
+      <c r="Y250">
+        <v>5</v>
+      </c>
+      <c r="Z250" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="251" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>364</v>
+      </c>
+      <c r="B251" t="s">
+        <v>365</v>
+      </c>
+      <c r="C251" t="s">
+        <v>36</v>
+      </c>
+      <c r="D251" t="s">
+        <v>37</v>
+      </c>
+      <c r="E251" t="s">
+        <v>39</v>
+      </c>
+      <c r="F251" t="s">
+        <v>40</v>
+      </c>
+      <c r="G251" t="s">
+        <v>41</v>
+      </c>
+      <c r="H251" t="s">
+        <v>366</v>
+      </c>
+      <c r="I251" t="s">
+        <v>367</v>
+      </c>
+      <c r="J251">
+        <v>40</v>
+      </c>
+      <c r="K251" t="s">
+        <v>44</v>
+      </c>
+      <c r="N251">
+        <v>1</v>
+      </c>
+      <c r="T251">
+        <v>1</v>
+      </c>
+      <c r="U251">
+        <v>20</v>
+      </c>
+      <c r="V251" t="s">
+        <v>45</v>
+      </c>
+      <c r="W251">
+        <v>1</v>
+      </c>
+      <c r="X251">
+        <v>25998807</v>
+      </c>
+      <c r="Y251">
+        <v>5</v>
+      </c>
+      <c r="Z251" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="252" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>370</v>
+      </c>
+      <c r="B252" t="s">
+        <v>369</v>
+      </c>
+      <c r="C252" t="s">
+        <v>36</v>
+      </c>
+      <c r="D252" t="s">
+        <v>37</v>
+      </c>
+      <c r="E252" t="s">
+        <v>39</v>
+      </c>
+      <c r="F252" t="s">
+        <v>40</v>
+      </c>
+      <c r="G252" t="s">
+        <v>41</v>
+      </c>
+      <c r="H252" t="s">
+        <v>366</v>
+      </c>
+      <c r="I252" t="s">
+        <v>375</v>
+      </c>
+      <c r="J252">
+        <v>36</v>
+      </c>
+      <c r="K252" t="s">
+        <v>44</v>
+      </c>
+      <c r="N252">
+        <v>2</v>
+      </c>
+      <c r="T252">
+        <v>1</v>
+      </c>
+      <c r="U252">
+        <v>20</v>
+      </c>
+      <c r="V252" t="s">
+        <v>45</v>
+      </c>
+      <c r="W252">
+        <v>1</v>
+      </c>
+      <c r="X252">
+        <v>25998807</v>
+      </c>
+      <c r="Y252">
+        <v>5</v>
+      </c>
+      <c r="Z252" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="253" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>371</v>
+      </c>
+      <c r="B253" t="s">
+        <v>369</v>
+      </c>
+      <c r="C253" t="s">
+        <v>36</v>
+      </c>
+      <c r="D253" t="s">
+        <v>37</v>
+      </c>
+      <c r="E253" t="s">
+        <v>39</v>
+      </c>
+      <c r="F253" t="s">
+        <v>40</v>
+      </c>
+      <c r="G253" t="s">
+        <v>41</v>
+      </c>
+      <c r="H253" t="s">
+        <v>366</v>
+      </c>
+      <c r="I253" t="s">
+        <v>375</v>
+      </c>
+      <c r="J253">
+        <v>37</v>
+      </c>
+      <c r="K253" t="s">
+        <v>44</v>
+      </c>
+      <c r="N253">
+        <v>3</v>
+      </c>
+      <c r="T253">
+        <v>1</v>
+      </c>
+      <c r="U253">
+        <v>20</v>
+      </c>
+      <c r="V253" t="s">
+        <v>45</v>
+      </c>
+      <c r="W253">
+        <v>1</v>
+      </c>
+      <c r="X253">
+        <v>25998807</v>
+      </c>
+      <c r="Y253">
+        <v>5</v>
+      </c>
+      <c r="Z253" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="254" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>372</v>
+      </c>
+      <c r="B254" t="s">
+        <v>369</v>
+      </c>
+      <c r="C254" t="s">
+        <v>36</v>
+      </c>
+      <c r="D254" t="s">
+        <v>37</v>
+      </c>
+      <c r="E254" t="s">
+        <v>39</v>
+      </c>
+      <c r="F254" t="s">
+        <v>40</v>
+      </c>
+      <c r="G254" t="s">
+        <v>41</v>
+      </c>
+      <c r="H254" t="s">
+        <v>366</v>
+      </c>
+      <c r="I254" t="s">
+        <v>375</v>
+      </c>
+      <c r="J254">
+        <v>38</v>
+      </c>
+      <c r="K254" t="s">
+        <v>44</v>
+      </c>
+      <c r="N254">
+        <v>4</v>
+      </c>
+      <c r="T254">
+        <v>1</v>
+      </c>
+      <c r="U254">
+        <v>20</v>
+      </c>
+      <c r="V254" t="s">
+        <v>45</v>
+      </c>
+      <c r="W254">
+        <v>1</v>
+      </c>
+      <c r="X254">
+        <v>25998807</v>
+      </c>
+      <c r="Y254">
+        <v>5</v>
+      </c>
+      <c r="Z254" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="255" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>373</v>
+      </c>
+      <c r="B255" t="s">
+        <v>369</v>
+      </c>
+      <c r="C255" t="s">
+        <v>36</v>
+      </c>
+      <c r="D255" t="s">
+        <v>37</v>
+      </c>
+      <c r="E255" t="s">
+        <v>39</v>
+      </c>
+      <c r="F255" t="s">
+        <v>40</v>
+      </c>
+      <c r="G255" t="s">
+        <v>41</v>
+      </c>
+      <c r="H255" t="s">
+        <v>366</v>
+      </c>
+      <c r="I255" t="s">
+        <v>375</v>
+      </c>
+      <c r="J255">
+        <v>39</v>
+      </c>
+      <c r="K255" t="s">
+        <v>44</v>
+      </c>
+      <c r="N255">
+        <v>2</v>
+      </c>
+      <c r="T255">
+        <v>1</v>
+      </c>
+      <c r="U255">
+        <v>20</v>
+      </c>
+      <c r="V255" t="s">
+        <v>45</v>
+      </c>
+      <c r="W255">
+        <v>1</v>
+      </c>
+      <c r="X255">
+        <v>25998807</v>
+      </c>
+      <c r="Y255">
+        <v>5</v>
+      </c>
+      <c r="Z255" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="256" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>374</v>
+      </c>
+      <c r="B256" t="s">
+        <v>369</v>
+      </c>
+      <c r="C256" t="s">
+        <v>36</v>
+      </c>
+      <c r="D256" t="s">
+        <v>37</v>
+      </c>
+      <c r="E256" t="s">
+        <v>39</v>
+      </c>
+      <c r="F256" t="s">
+        <v>40</v>
+      </c>
+      <c r="G256" t="s">
+        <v>41</v>
+      </c>
+      <c r="H256" t="s">
+        <v>366</v>
+      </c>
+      <c r="I256" t="s">
+        <v>375</v>
+      </c>
+      <c r="J256">
+        <v>40</v>
+      </c>
+      <c r="K256" t="s">
+        <v>44</v>
+      </c>
+      <c r="N256">
+        <v>1</v>
+      </c>
+      <c r="T256">
+        <v>1</v>
+      </c>
+      <c r="U256">
+        <v>20</v>
+      </c>
+      <c r="V256" t="s">
+        <v>45</v>
+      </c>
+      <c r="W256">
+        <v>1</v>
+      </c>
+      <c r="X256">
+        <v>25998807</v>
+      </c>
+      <c r="Y256">
+        <v>5</v>
+      </c>
+      <c r="Z256" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="257" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>378</v>
+      </c>
+      <c r="B257" t="s">
+        <v>376</v>
+      </c>
+      <c r="C257" t="s">
+        <v>36</v>
+      </c>
+      <c r="D257" t="s">
+        <v>37</v>
+      </c>
+      <c r="E257" t="s">
+        <v>39</v>
+      </c>
+      <c r="F257" t="s">
+        <v>40</v>
+      </c>
+      <c r="G257" t="s">
+        <v>41</v>
+      </c>
+      <c r="H257" t="s">
+        <v>366</v>
+      </c>
+      <c r="I257" t="s">
+        <v>377</v>
+      </c>
+      <c r="J257">
+        <v>36</v>
+      </c>
+      <c r="K257" t="s">
+        <v>44</v>
+      </c>
+      <c r="N257">
+        <v>2</v>
+      </c>
+      <c r="T257">
+        <v>1</v>
+      </c>
+      <c r="U257">
+        <v>20</v>
+      </c>
+      <c r="V257" t="s">
+        <v>45</v>
+      </c>
+      <c r="W257">
+        <v>1</v>
+      </c>
+      <c r="X257">
+        <v>25998807</v>
+      </c>
+      <c r="Y257">
+        <v>5</v>
+      </c>
+      <c r="Z257" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="258" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>379</v>
+      </c>
+      <c r="B258" t="s">
+        <v>376</v>
+      </c>
+      <c r="C258" t="s">
+        <v>36</v>
+      </c>
+      <c r="D258" t="s">
+        <v>37</v>
+      </c>
+      <c r="E258" t="s">
+        <v>39</v>
+      </c>
+      <c r="F258" t="s">
+        <v>40</v>
+      </c>
+      <c r="G258" t="s">
+        <v>41</v>
+      </c>
+      <c r="H258" t="s">
+        <v>366</v>
+      </c>
+      <c r="I258" t="s">
+        <v>377</v>
+      </c>
+      <c r="J258">
+        <v>37</v>
+      </c>
+      <c r="K258" t="s">
+        <v>44</v>
+      </c>
+      <c r="N258">
+        <v>3</v>
+      </c>
+      <c r="T258">
+        <v>1</v>
+      </c>
+      <c r="U258">
+        <v>20</v>
+      </c>
+      <c r="V258" t="s">
+        <v>45</v>
+      </c>
+      <c r="W258">
+        <v>1</v>
+      </c>
+      <c r="X258">
+        <v>25998807</v>
+      </c>
+      <c r="Y258">
+        <v>5</v>
+      </c>
+      <c r="Z258" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="259" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>380</v>
+      </c>
+      <c r="B259" t="s">
+        <v>376</v>
+      </c>
+      <c r="C259" t="s">
+        <v>36</v>
+      </c>
+      <c r="D259" t="s">
+        <v>37</v>
+      </c>
+      <c r="E259" t="s">
+        <v>39</v>
+      </c>
+      <c r="F259" t="s">
+        <v>40</v>
+      </c>
+      <c r="G259" t="s">
+        <v>41</v>
+      </c>
+      <c r="H259" t="s">
+        <v>366</v>
+      </c>
+      <c r="I259" t="s">
+        <v>377</v>
+      </c>
+      <c r="J259">
+        <v>38</v>
+      </c>
+      <c r="K259" t="s">
+        <v>44</v>
+      </c>
+      <c r="N259">
+        <v>4</v>
+      </c>
+      <c r="T259">
+        <v>1</v>
+      </c>
+      <c r="U259">
+        <v>20</v>
+      </c>
+      <c r="V259" t="s">
+        <v>45</v>
+      </c>
+      <c r="W259">
+        <v>1</v>
+      </c>
+      <c r="X259">
+        <v>25998807</v>
+      </c>
+      <c r="Y259">
+        <v>5</v>
+      </c>
+      <c r="Z259" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="260" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>381</v>
+      </c>
+      <c r="B260" t="s">
+        <v>376</v>
+      </c>
+      <c r="C260" t="s">
+        <v>36</v>
+      </c>
+      <c r="D260" t="s">
+        <v>37</v>
+      </c>
+      <c r="E260" t="s">
+        <v>39</v>
+      </c>
+      <c r="F260" t="s">
+        <v>40</v>
+      </c>
+      <c r="G260" t="s">
+        <v>41</v>
+      </c>
+      <c r="H260" t="s">
+        <v>366</v>
+      </c>
+      <c r="I260" t="s">
+        <v>377</v>
+      </c>
+      <c r="J260">
+        <v>39</v>
+      </c>
+      <c r="K260" t="s">
+        <v>44</v>
+      </c>
+      <c r="N260">
+        <v>2</v>
+      </c>
+      <c r="T260">
+        <v>1</v>
+      </c>
+      <c r="U260">
+        <v>20</v>
+      </c>
+      <c r="V260" t="s">
+        <v>45</v>
+      </c>
+      <c r="W260">
+        <v>1</v>
+      </c>
+      <c r="X260">
+        <v>25998807</v>
+      </c>
+      <c r="Y260">
+        <v>5</v>
+      </c>
+      <c r="Z260" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="261" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>382</v>
+      </c>
+      <c r="B261" t="s">
+        <v>376</v>
+      </c>
+      <c r="C261" t="s">
+        <v>36</v>
+      </c>
+      <c r="D261" t="s">
+        <v>37</v>
+      </c>
+      <c r="E261" t="s">
+        <v>39</v>
+      </c>
+      <c r="F261" t="s">
+        <v>40</v>
+      </c>
+      <c r="G261" t="s">
+        <v>41</v>
+      </c>
+      <c r="H261" t="s">
+        <v>366</v>
+      </c>
+      <c r="I261" t="s">
+        <v>377</v>
+      </c>
+      <c r="J261">
+        <v>40</v>
+      </c>
+      <c r="K261" t="s">
+        <v>44</v>
+      </c>
+      <c r="N261">
+        <v>1</v>
+      </c>
+      <c r="T261">
+        <v>1</v>
+      </c>
+      <c r="U261">
+        <v>20</v>
+      </c>
+      <c r="V261" t="s">
+        <v>45</v>
+      </c>
+      <c r="W261">
+        <v>1</v>
+      </c>
+      <c r="X261">
+        <v>25998807</v>
+      </c>
+      <c r="Y261">
+        <v>5</v>
+      </c>
+      <c r="Z261" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="262" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>383</v>
+      </c>
+      <c r="B262" t="s">
+        <v>388</v>
+      </c>
+      <c r="C262" t="s">
+        <v>36</v>
+      </c>
+      <c r="D262" t="s">
+        <v>37</v>
+      </c>
+      <c r="E262" t="s">
+        <v>39</v>
+      </c>
+      <c r="F262" t="s">
+        <v>40</v>
+      </c>
+      <c r="G262" t="s">
+        <v>41</v>
+      </c>
+      <c r="H262" t="s">
+        <v>366</v>
+      </c>
+      <c r="I262" t="s">
+        <v>155</v>
+      </c>
+      <c r="J262">
+        <v>36</v>
+      </c>
+      <c r="K262" t="s">
+        <v>44</v>
+      </c>
+      <c r="N262">
+        <v>2</v>
+      </c>
+      <c r="T262">
+        <v>1</v>
+      </c>
+      <c r="U262">
+        <v>20</v>
+      </c>
+      <c r="V262" t="s">
+        <v>45</v>
+      </c>
+      <c r="W262">
+        <v>1</v>
+      </c>
+      <c r="X262">
+        <v>25998807</v>
+      </c>
+      <c r="Y262">
+        <v>5</v>
+      </c>
+      <c r="Z262" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="263" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>384</v>
+      </c>
+      <c r="B263" t="s">
+        <v>388</v>
+      </c>
+      <c r="C263" t="s">
+        <v>36</v>
+      </c>
+      <c r="D263" t="s">
+        <v>37</v>
+      </c>
+      <c r="E263" t="s">
+        <v>39</v>
+      </c>
+      <c r="F263" t="s">
+        <v>40</v>
+      </c>
+      <c r="G263" t="s">
+        <v>41</v>
+      </c>
+      <c r="H263" t="s">
+        <v>366</v>
+      </c>
+      <c r="I263" t="s">
+        <v>155</v>
+      </c>
+      <c r="J263">
+        <v>37</v>
+      </c>
+      <c r="K263" t="s">
+        <v>44</v>
+      </c>
+      <c r="N263">
+        <v>3</v>
+      </c>
+      <c r="T263">
+        <v>1</v>
+      </c>
+      <c r="U263">
+        <v>20</v>
+      </c>
+      <c r="V263" t="s">
+        <v>45</v>
+      </c>
+      <c r="W263">
+        <v>1</v>
+      </c>
+      <c r="X263">
+        <v>25998807</v>
+      </c>
+      <c r="Y263">
+        <v>5</v>
+      </c>
+      <c r="Z263" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="264" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>385</v>
+      </c>
+      <c r="B264" t="s">
+        <v>388</v>
+      </c>
+      <c r="C264" t="s">
+        <v>36</v>
+      </c>
+      <c r="D264" t="s">
+        <v>37</v>
+      </c>
+      <c r="E264" t="s">
+        <v>39</v>
+      </c>
+      <c r="F264" t="s">
+        <v>40</v>
+      </c>
+      <c r="G264" t="s">
+        <v>41</v>
+      </c>
+      <c r="H264" t="s">
+        <v>366</v>
+      </c>
+      <c r="I264" t="s">
+        <v>155</v>
+      </c>
+      <c r="J264">
+        <v>38</v>
+      </c>
+      <c r="K264" t="s">
+        <v>44</v>
+      </c>
+      <c r="N264">
+        <v>4</v>
+      </c>
+      <c r="T264">
+        <v>1</v>
+      </c>
+      <c r="U264">
+        <v>20</v>
+      </c>
+      <c r="V264" t="s">
+        <v>45</v>
+      </c>
+      <c r="W264">
+        <v>1</v>
+      </c>
+      <c r="X264">
+        <v>25998807</v>
+      </c>
+      <c r="Y264">
+        <v>5</v>
+      </c>
+      <c r="Z264" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="265" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>386</v>
+      </c>
+      <c r="B265" t="s">
+        <v>388</v>
+      </c>
+      <c r="C265" t="s">
+        <v>36</v>
+      </c>
+      <c r="D265" t="s">
+        <v>37</v>
+      </c>
+      <c r="E265" t="s">
+        <v>39</v>
+      </c>
+      <c r="F265" t="s">
+        <v>40</v>
+      </c>
+      <c r="G265" t="s">
+        <v>41</v>
+      </c>
+      <c r="H265" t="s">
+        <v>366</v>
+      </c>
+      <c r="I265" t="s">
+        <v>155</v>
+      </c>
+      <c r="J265">
+        <v>39</v>
+      </c>
+      <c r="K265" t="s">
+        <v>44</v>
+      </c>
+      <c r="N265">
+        <v>2</v>
+      </c>
+      <c r="T265">
+        <v>1</v>
+      </c>
+      <c r="U265">
+        <v>20</v>
+      </c>
+      <c r="V265" t="s">
+        <v>45</v>
+      </c>
+      <c r="W265">
+        <v>1</v>
+      </c>
+      <c r="X265">
+        <v>25998807</v>
+      </c>
+      <c r="Y265">
+        <v>5</v>
+      </c>
+      <c r="Z265" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="266" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>387</v>
+      </c>
+      <c r="B266" t="s">
+        <v>388</v>
+      </c>
+      <c r="C266" t="s">
+        <v>36</v>
+      </c>
+      <c r="D266" t="s">
+        <v>37</v>
+      </c>
+      <c r="E266" t="s">
+        <v>39</v>
+      </c>
+      <c r="F266" t="s">
+        <v>40</v>
+      </c>
+      <c r="G266" t="s">
+        <v>41</v>
+      </c>
+      <c r="H266" t="s">
+        <v>366</v>
+      </c>
+      <c r="I266" t="s">
+        <v>155</v>
+      </c>
+      <c r="J266">
+        <v>40</v>
+      </c>
+      <c r="K266" t="s">
+        <v>44</v>
+      </c>
+      <c r="N266">
+        <v>1</v>
+      </c>
+      <c r="T266">
+        <v>1</v>
+      </c>
+      <c r="U266">
+        <v>20</v>
+      </c>
+      <c r="V266" t="s">
+        <v>45</v>
+      </c>
+      <c r="W266">
+        <v>1</v>
+      </c>
+      <c r="X266">
+        <v>25998807</v>
+      </c>
+      <c r="Y266">
+        <v>5</v>
+      </c>
+      <c r="Z266" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="267" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>389</v>
+      </c>
+      <c r="B267" t="s">
+        <v>394</v>
+      </c>
+      <c r="C267" t="s">
+        <v>36</v>
+      </c>
+      <c r="D267" t="s">
+        <v>37</v>
+      </c>
+      <c r="E267" t="s">
+        <v>39</v>
+      </c>
+      <c r="F267" t="s">
+        <v>40</v>
+      </c>
+      <c r="G267" t="s">
+        <v>41</v>
+      </c>
+      <c r="H267" t="s">
+        <v>366</v>
+      </c>
+      <c r="I267" t="s">
+        <v>395</v>
+      </c>
+      <c r="J267">
+        <v>36</v>
+      </c>
+      <c r="K267" t="s">
+        <v>44</v>
+      </c>
+      <c r="N267">
+        <v>2</v>
+      </c>
+      <c r="T267">
+        <v>1</v>
+      </c>
+      <c r="U267">
+        <v>20</v>
+      </c>
+      <c r="V267" t="s">
+        <v>45</v>
+      </c>
+      <c r="W267">
+        <v>1</v>
+      </c>
+      <c r="X267">
+        <v>25998807</v>
+      </c>
+      <c r="Y267">
+        <v>5</v>
+      </c>
+      <c r="Z267" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="268" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>390</v>
+      </c>
+      <c r="B268" t="s">
+        <v>394</v>
+      </c>
+      <c r="C268" t="s">
+        <v>36</v>
+      </c>
+      <c r="D268" t="s">
+        <v>37</v>
+      </c>
+      <c r="E268" t="s">
+        <v>39</v>
+      </c>
+      <c r="F268" t="s">
+        <v>40</v>
+      </c>
+      <c r="G268" t="s">
+        <v>41</v>
+      </c>
+      <c r="H268" t="s">
+        <v>366</v>
+      </c>
+      <c r="I268" t="s">
+        <v>395</v>
+      </c>
+      <c r="J268">
+        <v>37</v>
+      </c>
+      <c r="K268" t="s">
+        <v>44</v>
+      </c>
+      <c r="N268">
+        <v>3</v>
+      </c>
+      <c r="T268">
+        <v>1</v>
+      </c>
+      <c r="U268">
+        <v>20</v>
+      </c>
+      <c r="V268" t="s">
+        <v>45</v>
+      </c>
+      <c r="W268">
+        <v>1</v>
+      </c>
+      <c r="X268">
+        <v>25998807</v>
+      </c>
+      <c r="Y268">
+        <v>5</v>
+      </c>
+      <c r="Z268" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="269" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>391</v>
+      </c>
+      <c r="B269" t="s">
+        <v>394</v>
+      </c>
+      <c r="C269" t="s">
+        <v>36</v>
+      </c>
+      <c r="D269" t="s">
+        <v>37</v>
+      </c>
+      <c r="E269" t="s">
+        <v>39</v>
+      </c>
+      <c r="F269" t="s">
+        <v>40</v>
+      </c>
+      <c r="G269" t="s">
+        <v>41</v>
+      </c>
+      <c r="H269" t="s">
+        <v>366</v>
+      </c>
+      <c r="I269" t="s">
+        <v>395</v>
+      </c>
+      <c r="J269">
+        <v>38</v>
+      </c>
+      <c r="K269" t="s">
+        <v>44</v>
+      </c>
+      <c r="N269">
+        <v>4</v>
+      </c>
+      <c r="T269">
+        <v>1</v>
+      </c>
+      <c r="U269">
+        <v>20</v>
+      </c>
+      <c r="V269" t="s">
+        <v>45</v>
+      </c>
+      <c r="W269">
+        <v>1</v>
+      </c>
+      <c r="X269">
+        <v>25998807</v>
+      </c>
+      <c r="Y269">
+        <v>5</v>
+      </c>
+      <c r="Z269" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="270" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>392</v>
+      </c>
+      <c r="B270" t="s">
+        <v>394</v>
+      </c>
+      <c r="C270" t="s">
+        <v>36</v>
+      </c>
+      <c r="D270" t="s">
+        <v>37</v>
+      </c>
+      <c r="E270" t="s">
+        <v>39</v>
+      </c>
+      <c r="F270" t="s">
+        <v>40</v>
+      </c>
+      <c r="G270" t="s">
+        <v>41</v>
+      </c>
+      <c r="H270" t="s">
+        <v>366</v>
+      </c>
+      <c r="I270" t="s">
+        <v>395</v>
+      </c>
+      <c r="J270">
+        <v>39</v>
+      </c>
+      <c r="K270" t="s">
+        <v>44</v>
+      </c>
+      <c r="N270">
+        <v>2</v>
+      </c>
+      <c r="T270">
+        <v>1</v>
+      </c>
+      <c r="U270">
+        <v>20</v>
+      </c>
+      <c r="V270" t="s">
+        <v>45</v>
+      </c>
+      <c r="W270">
+        <v>1</v>
+      </c>
+      <c r="X270">
+        <v>25998807</v>
+      </c>
+      <c r="Y270">
+        <v>5</v>
+      </c>
+      <c r="Z270" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="271" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>393</v>
+      </c>
+      <c r="B271" t="s">
+        <v>394</v>
+      </c>
+      <c r="C271" t="s">
+        <v>36</v>
+      </c>
+      <c r="D271" t="s">
+        <v>37</v>
+      </c>
+      <c r="E271" t="s">
+        <v>39</v>
+      </c>
+      <c r="F271" t="s">
+        <v>40</v>
+      </c>
+      <c r="G271" t="s">
+        <v>41</v>
+      </c>
+      <c r="H271" t="s">
+        <v>366</v>
+      </c>
+      <c r="I271" t="s">
+        <v>395</v>
+      </c>
+      <c r="J271">
+        <v>40</v>
+      </c>
+      <c r="K271" t="s">
+        <v>44</v>
+      </c>
+      <c r="N271">
+        <v>1</v>
+      </c>
+      <c r="T271">
+        <v>1</v>
+      </c>
+      <c r="U271">
+        <v>20</v>
+      </c>
+      <c r="V271" t="s">
+        <v>45</v>
+      </c>
+      <c r="W271">
+        <v>1</v>
+      </c>
+      <c r="X271">
+        <v>25998807</v>
+      </c>
+      <c r="Y271">
+        <v>5</v>
+      </c>
+      <c r="Z271" t="s">
+        <v>368</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/INVENTARIOS TIENDA/21-7-2022 bajada a tienda.xlsx
+++ b/INVENTARIOS TIENDA/21-7-2022 bajada a tienda.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chadi Salloum\Desktop\INVENTARIOS\INVENTARIOS TIENDA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ABDALLA\Desktop\INVENTARIOS\INVENTARIOS TIENDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB0EB680-DC83-4972-8346-8E52691D2EFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1420E804-EC14-4A49-A889-6D0E0E55EEE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8001A6F6-D8E1-4121-8D92-C4A64C78AF81}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8001A6F6-D8E1-4121-8D92-C4A64C78AF81}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -402,9 +402,6 @@
     <t>NAM40NEW-30003</t>
   </si>
   <si>
-    <t>ZAPATO NEW BALANCE AZUL MARIÑO ROJO</t>
-  </si>
-  <si>
     <t>NAMF36NEW-40004</t>
   </si>
   <si>
@@ -420,15 +417,6 @@
     <t>NAMF40NEW-40004</t>
   </si>
   <si>
-    <t>ZAPATO NEW BALANCE AZUL MARIÑO FUCSIA</t>
-  </si>
-  <si>
-    <t>AZUL MARIÑO ROJO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AZUL MARIÑO FUCSIA </t>
-  </si>
-  <si>
     <t>NNF36NEW-50005</t>
   </si>
   <si>
@@ -564,12 +552,6 @@
     <t>NAMN45RUN-40004</t>
   </si>
   <si>
-    <t>ZAPATO NIKE JOYRIDE RUN AZUL MARIÑO NEGRO</t>
-  </si>
-  <si>
-    <t>AZUL MARIÑO NEGRO</t>
-  </si>
-  <si>
     <t>NAG36RUN-50005</t>
   </si>
   <si>
@@ -1065,12 +1047,6 @@
     <t>ABT40STAR-40004</t>
   </si>
   <si>
-    <t>ZAPATOS ADIDAS SUPER STAR BLANCO NEGRO TORNASOL</t>
-  </si>
-  <si>
-    <t>BLANCO NEGRO TORNASOL</t>
-  </si>
-  <si>
     <t>ABNR36STAR-50005</t>
   </si>
   <si>
@@ -1213,13 +1189,37 @@
   </si>
   <si>
     <t>BLANCO AZUL</t>
+  </si>
+  <si>
+    <t>ZAPATO NEW BALANCE AZUL MARINO ROJO</t>
+  </si>
+  <si>
+    <t>AZUL MARINO ROJO</t>
+  </si>
+  <si>
+    <t>ZAPATO NEW BALANCE AZUL MARINO FUCSIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AZUL MARINO FUCSIA </t>
+  </si>
+  <si>
+    <t>ZAPATO NIKE JOYRIDE RUN AZUL MARINO NEGRO</t>
+  </si>
+  <si>
+    <t>AZUL MARINO NEGRO</t>
+  </si>
+  <si>
+    <t>ZAPATOS ADIDAS SUPER STAR BLANCO TORNASOL</t>
+  </si>
+  <si>
+    <t>BLANCO TORNASOL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1236,6 +1236,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1282,16 +1290,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Bueno" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1308,7 +1317,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1606,11 +1615,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{910F22F0-F4CD-45E5-B8AF-0C50B326A656}">
   <dimension ref="A1:Z271"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C250" workbookViewId="0">
-      <selection activeCell="Z266" sqref="Z266:Z271"/>
+    <sheetView tabSelected="1" topLeftCell="B217" workbookViewId="0">
+      <selection activeCell="H237" sqref="H237"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="50.5703125" bestFit="1" customWidth="1"/>
@@ -4598,7 +4607,7 @@
       <c r="A51" t="s">
         <v>98</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="4" t="s">
         <v>102</v>
       </c>
       <c r="C51" t="s">
@@ -5425,7 +5434,7 @@
         <v>120</v>
       </c>
       <c r="B65" t="s">
-        <v>125</v>
+        <v>388</v>
       </c>
       <c r="C65" t="s">
         <v>36</v>
@@ -5446,7 +5455,7 @@
         <v>110</v>
       </c>
       <c r="I65" t="s">
-        <v>132</v>
+        <v>389</v>
       </c>
       <c r="J65">
         <v>36</v>
@@ -5484,7 +5493,7 @@
         <v>121</v>
       </c>
       <c r="B66" t="s">
-        <v>125</v>
+        <v>388</v>
       </c>
       <c r="C66" t="s">
         <v>36</v>
@@ -5505,7 +5514,7 @@
         <v>110</v>
       </c>
       <c r="I66" t="s">
-        <v>132</v>
+        <v>389</v>
       </c>
       <c r="J66">
         <v>37</v>
@@ -5543,7 +5552,7 @@
         <v>122</v>
       </c>
       <c r="B67" t="s">
-        <v>125</v>
+        <v>388</v>
       </c>
       <c r="C67" t="s">
         <v>36</v>
@@ -5564,7 +5573,7 @@
         <v>110</v>
       </c>
       <c r="I67" t="s">
-        <v>132</v>
+        <v>389</v>
       </c>
       <c r="J67">
         <v>38</v>
@@ -5602,7 +5611,7 @@
         <v>123</v>
       </c>
       <c r="B68" t="s">
-        <v>125</v>
+        <v>388</v>
       </c>
       <c r="C68" t="s">
         <v>36</v>
@@ -5623,7 +5632,7 @@
         <v>110</v>
       </c>
       <c r="I68" t="s">
-        <v>132</v>
+        <v>389</v>
       </c>
       <c r="J68">
         <v>39</v>
@@ -5661,7 +5670,7 @@
         <v>124</v>
       </c>
       <c r="B69" t="s">
-        <v>125</v>
+        <v>388</v>
       </c>
       <c r="C69" t="s">
         <v>36</v>
@@ -5682,7 +5691,7 @@
         <v>110</v>
       </c>
       <c r="I69" t="s">
-        <v>132</v>
+        <v>389</v>
       </c>
       <c r="J69">
         <v>40</v>
@@ -5717,10 +5726,10 @@
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B70" t="s">
-        <v>131</v>
+        <v>390</v>
       </c>
       <c r="C70" t="s">
         <v>36</v>
@@ -5741,7 +5750,7 @@
         <v>110</v>
       </c>
       <c r="I70" t="s">
-        <v>133</v>
+        <v>391</v>
       </c>
       <c r="J70">
         <v>36</v>
@@ -5776,10 +5785,10 @@
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B71" t="s">
-        <v>131</v>
+        <v>390</v>
       </c>
       <c r="C71" t="s">
         <v>36</v>
@@ -5800,7 +5809,7 @@
         <v>110</v>
       </c>
       <c r="I71" t="s">
-        <v>133</v>
+        <v>391</v>
       </c>
       <c r="J71">
         <v>37</v>
@@ -5835,10 +5844,10 @@
     </row>
     <row r="72" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B72" t="s">
-        <v>131</v>
+        <v>390</v>
       </c>
       <c r="C72" t="s">
         <v>36</v>
@@ -5859,7 +5868,7 @@
         <v>110</v>
       </c>
       <c r="I72" t="s">
-        <v>133</v>
+        <v>391</v>
       </c>
       <c r="J72">
         <v>38</v>
@@ -5894,10 +5903,10 @@
     </row>
     <row r="73" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B73" t="s">
-        <v>131</v>
+        <v>390</v>
       </c>
       <c r="C73" t="s">
         <v>36</v>
@@ -5918,7 +5927,7 @@
         <v>110</v>
       </c>
       <c r="I73" t="s">
-        <v>133</v>
+        <v>391</v>
       </c>
       <c r="J73">
         <v>39</v>
@@ -5953,10 +5962,10 @@
     </row>
     <row r="74" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B74" t="s">
-        <v>131</v>
+        <v>390</v>
       </c>
       <c r="C74" t="s">
         <v>36</v>
@@ -5977,7 +5986,7 @@
         <v>110</v>
       </c>
       <c r="I74" t="s">
-        <v>133</v>
+        <v>391</v>
       </c>
       <c r="J74">
         <v>40</v>
@@ -6012,10 +6021,10 @@
     </row>
     <row r="75" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B75" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C75" t="s">
         <v>36</v>
@@ -6036,7 +6045,7 @@
         <v>110</v>
       </c>
       <c r="I75" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="J75">
         <v>36</v>
@@ -6071,10 +6080,10 @@
     </row>
     <row r="76" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
+        <v>131</v>
+      </c>
+      <c r="B76" t="s">
         <v>135</v>
-      </c>
-      <c r="B76" t="s">
-        <v>139</v>
       </c>
       <c r="C76" t="s">
         <v>36</v>
@@ -6095,7 +6104,7 @@
         <v>110</v>
       </c>
       <c r="I76" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="J76">
         <v>37</v>
@@ -6130,10 +6139,10 @@
     </row>
     <row r="77" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B77" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C77" t="s">
         <v>36</v>
@@ -6154,7 +6163,7 @@
         <v>110</v>
       </c>
       <c r="I77" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="J77">
         <v>38</v>
@@ -6189,10 +6198,10 @@
     </row>
     <row r="78" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B78" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C78" t="s">
         <v>36</v>
@@ -6213,7 +6222,7 @@
         <v>110</v>
       </c>
       <c r="I78" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="J78">
         <v>39</v>
@@ -6248,10 +6257,10 @@
     </row>
     <row r="79" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B79" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C79" t="s">
         <v>36</v>
@@ -6272,7 +6281,7 @@
         <v>110</v>
       </c>
       <c r="I79" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="J79">
         <v>40</v>
@@ -6307,11 +6316,11 @@
     </row>
     <row r="80" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
+        <v>138</v>
+      </c>
+      <c r="B80" t="s">
         <v>142</v>
       </c>
-      <c r="B80" t="s">
-        <v>146</v>
-      </c>
       <c r="C80" t="s">
         <v>36</v>
       </c>
@@ -6328,10 +6337,10 @@
         <v>41</v>
       </c>
       <c r="H80" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="I80" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="J80">
         <v>36</v>
@@ -6361,36 +6370,36 @@
         <v>5</v>
       </c>
       <c r="Z80" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="81" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
+        <v>139</v>
+      </c>
+      <c r="B81" t="s">
+        <v>142</v>
+      </c>
+      <c r="C81" t="s">
+        <v>36</v>
+      </c>
+      <c r="D81" t="s">
+        <v>37</v>
+      </c>
+      <c r="E81" t="s">
+        <v>39</v>
+      </c>
+      <c r="F81" t="s">
+        <v>40</v>
+      </c>
+      <c r="G81" t="s">
+        <v>41</v>
+      </c>
+      <c r="H81" t="s">
         <v>143</v>
       </c>
-      <c r="B81" t="s">
-        <v>146</v>
-      </c>
-      <c r="C81" t="s">
-        <v>36</v>
-      </c>
-      <c r="D81" t="s">
-        <v>37</v>
-      </c>
-      <c r="E81" t="s">
-        <v>39</v>
-      </c>
-      <c r="F81" t="s">
-        <v>40</v>
-      </c>
-      <c r="G81" t="s">
-        <v>41</v>
-      </c>
-      <c r="H81" t="s">
-        <v>147</v>
-      </c>
       <c r="I81" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="J81">
         <v>37</v>
@@ -6420,36 +6429,36 @@
         <v>5</v>
       </c>
       <c r="Z81" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="82" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
+        <v>140</v>
+      </c>
+      <c r="B82" t="s">
+        <v>142</v>
+      </c>
+      <c r="C82" t="s">
+        <v>36</v>
+      </c>
+      <c r="D82" t="s">
+        <v>37</v>
+      </c>
+      <c r="E82" t="s">
+        <v>39</v>
+      </c>
+      <c r="F82" t="s">
+        <v>40</v>
+      </c>
+      <c r="G82" t="s">
+        <v>41</v>
+      </c>
+      <c r="H82" t="s">
+        <v>143</v>
+      </c>
+      <c r="I82" t="s">
         <v>144</v>
-      </c>
-      <c r="B82" t="s">
-        <v>146</v>
-      </c>
-      <c r="C82" t="s">
-        <v>36</v>
-      </c>
-      <c r="D82" t="s">
-        <v>37</v>
-      </c>
-      <c r="E82" t="s">
-        <v>39</v>
-      </c>
-      <c r="F82" t="s">
-        <v>40</v>
-      </c>
-      <c r="G82" t="s">
-        <v>41</v>
-      </c>
-      <c r="H82" t="s">
-        <v>147</v>
-      </c>
-      <c r="I82" t="s">
-        <v>148</v>
       </c>
       <c r="J82">
         <v>38</v>
@@ -6479,15 +6488,15 @@
         <v>5</v>
       </c>
       <c r="Z82" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="83" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B83" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C83" t="s">
         <v>36</v>
@@ -6505,10 +6514,10 @@
         <v>41</v>
       </c>
       <c r="H83" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="I83" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="J83">
         <v>39</v>
@@ -6538,15 +6547,15 @@
         <v>5</v>
       </c>
       <c r="Z83" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="84" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B84" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C84" t="s">
         <v>36</v>
@@ -6564,10 +6573,10 @@
         <v>41</v>
       </c>
       <c r="H84" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="I84" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="J84">
         <v>40</v>
@@ -6597,15 +6606,15 @@
         <v>5</v>
       </c>
       <c r="Z84" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="85" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B85" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C85" t="s">
         <v>36</v>
@@ -6623,10 +6632,10 @@
         <v>41</v>
       </c>
       <c r="H85" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="I85" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="J85">
         <v>36</v>
@@ -6656,16 +6665,16 @@
         <v>5</v>
       </c>
       <c r="Z85" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="86" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
+        <v>146</v>
+      </c>
+      <c r="B86" t="s">
         <v>150</v>
       </c>
-      <c r="B86" t="s">
-        <v>154</v>
-      </c>
       <c r="C86" t="s">
         <v>36</v>
       </c>
@@ -6682,10 +6691,10 @@
         <v>41</v>
       </c>
       <c r="H86" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="I86" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="J86">
         <v>37</v>
@@ -6715,36 +6724,36 @@
         <v>5</v>
       </c>
       <c r="Z86" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="87" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
+        <v>147</v>
+      </c>
+      <c r="B87" t="s">
+        <v>150</v>
+      </c>
+      <c r="C87" t="s">
+        <v>36</v>
+      </c>
+      <c r="D87" t="s">
+        <v>37</v>
+      </c>
+      <c r="E87" t="s">
+        <v>39</v>
+      </c>
+      <c r="F87" t="s">
+        <v>40</v>
+      </c>
+      <c r="G87" t="s">
+        <v>41</v>
+      </c>
+      <c r="H87" t="s">
+        <v>143</v>
+      </c>
+      <c r="I87" t="s">
         <v>151</v>
-      </c>
-      <c r="B87" t="s">
-        <v>154</v>
-      </c>
-      <c r="C87" t="s">
-        <v>36</v>
-      </c>
-      <c r="D87" t="s">
-        <v>37</v>
-      </c>
-      <c r="E87" t="s">
-        <v>39</v>
-      </c>
-      <c r="F87" t="s">
-        <v>40</v>
-      </c>
-      <c r="G87" t="s">
-        <v>41</v>
-      </c>
-      <c r="H87" t="s">
-        <v>147</v>
-      </c>
-      <c r="I87" t="s">
-        <v>155</v>
       </c>
       <c r="J87">
         <v>38</v>
@@ -6774,15 +6783,15 @@
         <v>5</v>
       </c>
       <c r="Z87" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="88" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B88" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C88" t="s">
         <v>36</v>
@@ -6800,10 +6809,10 @@
         <v>41</v>
       </c>
       <c r="H88" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="I88" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="J88">
         <v>39</v>
@@ -6833,15 +6842,15 @@
         <v>5</v>
       </c>
       <c r="Z88" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="89" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B89" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C89" t="s">
         <v>36</v>
@@ -6859,10 +6868,10 @@
         <v>41</v>
       </c>
       <c r="H89" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="I89" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="J89">
         <v>40</v>
@@ -6892,15 +6901,15 @@
         <v>5</v>
       </c>
       <c r="Z89" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="90" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B90" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C90" t="s">
         <v>36</v>
@@ -6918,10 +6927,10 @@
         <v>41</v>
       </c>
       <c r="H90" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="I90" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J90">
         <v>36</v>
@@ -6951,15 +6960,15 @@
         <v>5</v>
       </c>
       <c r="Z90" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="91" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B91" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C91" t="s">
         <v>36</v>
@@ -6977,10 +6986,10 @@
         <v>41</v>
       </c>
       <c r="H91" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="I91" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J91">
         <v>37</v>
@@ -7010,15 +7019,15 @@
         <v>5</v>
       </c>
       <c r="Z91" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="92" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B92" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C92" t="s">
         <v>36</v>
@@ -7036,10 +7045,10 @@
         <v>41</v>
       </c>
       <c r="H92" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="I92" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J92">
         <v>38</v>
@@ -7069,15 +7078,15 @@
         <v>5</v>
       </c>
       <c r="Z92" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="93" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B93" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C93" t="s">
         <v>36</v>
@@ -7095,10 +7104,10 @@
         <v>41</v>
       </c>
       <c r="H93" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="I93" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J93">
         <v>39</v>
@@ -7128,15 +7137,15 @@
         <v>5</v>
       </c>
       <c r="Z93" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="94" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B94" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C94" t="s">
         <v>36</v>
@@ -7154,10 +7163,10 @@
         <v>41</v>
       </c>
       <c r="H94" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="I94" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J94">
         <v>40</v>
@@ -7187,15 +7196,15 @@
         <v>5</v>
       </c>
       <c r="Z94" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="95" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B95" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C95" t="s">
         <v>36</v>
@@ -7213,10 +7222,10 @@
         <v>41</v>
       </c>
       <c r="H95" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="I95" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J95">
         <v>41</v>
@@ -7246,15 +7255,15 @@
         <v>5</v>
       </c>
       <c r="Z95" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="96" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
+        <v>159</v>
+      </c>
+      <c r="B96" t="s">
         <v>163</v>
-      </c>
-      <c r="B96" t="s">
-        <v>167</v>
       </c>
       <c r="C96" t="s">
         <v>36</v>
@@ -7272,10 +7281,10 @@
         <v>41</v>
       </c>
       <c r="H96" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="I96" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J96">
         <v>42</v>
@@ -7305,15 +7314,15 @@
         <v>5</v>
       </c>
       <c r="Z96" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="97" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B97" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C97" t="s">
         <v>36</v>
@@ -7331,10 +7340,10 @@
         <v>41</v>
       </c>
       <c r="H97" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="I97" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J97">
         <v>43</v>
@@ -7364,15 +7373,15 @@
         <v>5</v>
       </c>
       <c r="Z97" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="98" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B98" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C98" t="s">
         <v>36</v>
@@ -7390,10 +7399,10 @@
         <v>41</v>
       </c>
       <c r="H98" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="I98" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J98">
         <v>44</v>
@@ -7423,15 +7432,15 @@
         <v>5</v>
       </c>
       <c r="Z98" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="99" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B99" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C99" t="s">
         <v>36</v>
@@ -7449,10 +7458,10 @@
         <v>41</v>
       </c>
       <c r="H99" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="I99" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J99">
         <v>45</v>
@@ -7482,15 +7491,15 @@
         <v>5</v>
       </c>
       <c r="Z99" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="100" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B100" t="s">
-        <v>179</v>
+        <v>392</v>
       </c>
       <c r="C100" t="s">
         <v>36</v>
@@ -7508,10 +7517,10 @@
         <v>41</v>
       </c>
       <c r="H100" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="I100" t="s">
-        <v>180</v>
+        <v>393</v>
       </c>
       <c r="J100">
         <v>36</v>
@@ -7541,15 +7550,15 @@
         <v>5</v>
       </c>
       <c r="Z100" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="101" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B101" t="s">
-        <v>179</v>
+        <v>392</v>
       </c>
       <c r="C101" t="s">
         <v>36</v>
@@ -7567,10 +7576,10 @@
         <v>41</v>
       </c>
       <c r="H101" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="I101" t="s">
-        <v>180</v>
+        <v>393</v>
       </c>
       <c r="J101">
         <v>37</v>
@@ -7600,15 +7609,15 @@
         <v>5</v>
       </c>
       <c r="Z101" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="102" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B102" t="s">
-        <v>179</v>
+        <v>392</v>
       </c>
       <c r="C102" t="s">
         <v>36</v>
@@ -7626,10 +7635,10 @@
         <v>41</v>
       </c>
       <c r="H102" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="I102" t="s">
-        <v>180</v>
+        <v>393</v>
       </c>
       <c r="J102">
         <v>38</v>
@@ -7659,15 +7668,15 @@
         <v>5</v>
       </c>
       <c r="Z102" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="103" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B103" t="s">
-        <v>179</v>
+        <v>392</v>
       </c>
       <c r="C103" t="s">
         <v>36</v>
@@ -7685,10 +7694,10 @@
         <v>41</v>
       </c>
       <c r="H103" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="I103" t="s">
-        <v>180</v>
+        <v>393</v>
       </c>
       <c r="J103">
         <v>39</v>
@@ -7718,15 +7727,15 @@
         <v>5</v>
       </c>
       <c r="Z103" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="104" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B104" t="s">
-        <v>179</v>
+        <v>392</v>
       </c>
       <c r="C104" t="s">
         <v>36</v>
@@ -7744,10 +7753,10 @@
         <v>41</v>
       </c>
       <c r="H104" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="I104" t="s">
-        <v>180</v>
+        <v>393</v>
       </c>
       <c r="J104">
         <v>40</v>
@@ -7777,15 +7786,15 @@
         <v>5</v>
       </c>
       <c r="Z104" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="105" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B105" t="s">
-        <v>179</v>
+        <v>392</v>
       </c>
       <c r="C105" t="s">
         <v>36</v>
@@ -7803,10 +7812,10 @@
         <v>41</v>
       </c>
       <c r="H105" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="I105" t="s">
-        <v>180</v>
+        <v>393</v>
       </c>
       <c r="J105">
         <v>41</v>
@@ -7836,15 +7845,15 @@
         <v>5</v>
       </c>
       <c r="Z105" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="106" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B106" t="s">
-        <v>179</v>
+        <v>392</v>
       </c>
       <c r="C106" t="s">
         <v>36</v>
@@ -7862,10 +7871,10 @@
         <v>41</v>
       </c>
       <c r="H106" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="I106" t="s">
-        <v>180</v>
+        <v>393</v>
       </c>
       <c r="J106">
         <v>42</v>
@@ -7895,15 +7904,15 @@
         <v>5</v>
       </c>
       <c r="Z106" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="107" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B107" t="s">
-        <v>179</v>
+        <v>392</v>
       </c>
       <c r="C107" t="s">
         <v>36</v>
@@ -7921,10 +7930,10 @@
         <v>41</v>
       </c>
       <c r="H107" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="I107" t="s">
-        <v>180</v>
+        <v>393</v>
       </c>
       <c r="J107">
         <v>43</v>
@@ -7954,15 +7963,15 @@
         <v>5</v>
       </c>
       <c r="Z107" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="108" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B108" t="s">
-        <v>179</v>
+        <v>392</v>
       </c>
       <c r="C108" t="s">
         <v>36</v>
@@ -7980,10 +7989,10 @@
         <v>41</v>
       </c>
       <c r="H108" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="I108" t="s">
-        <v>180</v>
+        <v>393</v>
       </c>
       <c r="J108">
         <v>44</v>
@@ -8013,15 +8022,15 @@
         <v>5</v>
       </c>
       <c r="Z108" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="109" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B109" t="s">
-        <v>179</v>
+        <v>392</v>
       </c>
       <c r="C109" t="s">
         <v>36</v>
@@ -8039,10 +8048,10 @@
         <v>41</v>
       </c>
       <c r="H109" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="I109" t="s">
-        <v>180</v>
+        <v>393</v>
       </c>
       <c r="J109">
         <v>45</v>
@@ -8072,15 +8081,15 @@
         <v>5</v>
       </c>
       <c r="Z109" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="110" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B110" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C110" t="s">
         <v>36</v>
@@ -8098,10 +8107,10 @@
         <v>41</v>
       </c>
       <c r="H110" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="I110" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="J110">
         <v>36</v>
@@ -8131,15 +8140,15 @@
         <v>5</v>
       </c>
       <c r="Z110" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="111" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B111" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C111" t="s">
         <v>36</v>
@@ -8157,10 +8166,10 @@
         <v>41</v>
       </c>
       <c r="H111" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="I111" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="J111">
         <v>37</v>
@@ -8190,15 +8199,15 @@
         <v>5</v>
       </c>
       <c r="Z111" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="112" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B112" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C112" t="s">
         <v>36</v>
@@ -8216,10 +8225,10 @@
         <v>41</v>
       </c>
       <c r="H112" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="I112" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="J112">
         <v>38</v>
@@ -8249,15 +8258,15 @@
         <v>5</v>
       </c>
       <c r="Z112" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="113" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B113" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C113" t="s">
         <v>36</v>
@@ -8275,10 +8284,10 @@
         <v>41</v>
       </c>
       <c r="H113" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="I113" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="J113">
         <v>39</v>
@@ -8308,16 +8317,16 @@
         <v>5</v>
       </c>
       <c r="Z113" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="114" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
+        <v>179</v>
+      </c>
+      <c r="B114" t="s">
         <v>185</v>
       </c>
-      <c r="B114" t="s">
-        <v>191</v>
-      </c>
       <c r="C114" t="s">
         <v>36</v>
       </c>
@@ -8334,10 +8343,10 @@
         <v>41</v>
       </c>
       <c r="H114" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="I114" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="J114">
         <v>40</v>
@@ -8367,15 +8376,15 @@
         <v>5</v>
       </c>
       <c r="Z114" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="115" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B115" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C115" t="s">
         <v>36</v>
@@ -8393,10 +8402,10 @@
         <v>41</v>
       </c>
       <c r="H115" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="I115" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="J115">
         <v>41</v>
@@ -8426,15 +8435,15 @@
         <v>5</v>
       </c>
       <c r="Z115" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="116" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B116" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C116" t="s">
         <v>36</v>
@@ -8452,10 +8461,10 @@
         <v>41</v>
       </c>
       <c r="H116" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="I116" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="J116">
         <v>42</v>
@@ -8485,15 +8494,15 @@
         <v>5</v>
       </c>
       <c r="Z116" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="117" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B117" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C117" t="s">
         <v>36</v>
@@ -8511,10 +8520,10 @@
         <v>41</v>
       </c>
       <c r="H117" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="I117" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="J117">
         <v>43</v>
@@ -8544,15 +8553,15 @@
         <v>5</v>
       </c>
       <c r="Z117" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="118" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B118" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C118" t="s">
         <v>36</v>
@@ -8570,10 +8579,10 @@
         <v>41</v>
       </c>
       <c r="H118" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="I118" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="J118">
         <v>44</v>
@@ -8603,15 +8612,15 @@
         <v>5</v>
       </c>
       <c r="Z118" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="119" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B119" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C119" t="s">
         <v>36</v>
@@ -8629,10 +8638,10 @@
         <v>41</v>
       </c>
       <c r="H119" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="I119" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="J119">
         <v>45</v>
@@ -8662,15 +8671,15 @@
         <v>5</v>
       </c>
       <c r="Z119" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="120" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B120" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C120" t="s">
         <v>36</v>
@@ -8688,7 +8697,7 @@
         <v>41</v>
       </c>
       <c r="H120" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="I120" t="s">
         <v>43</v>
@@ -8721,15 +8730,15 @@
         <v>5</v>
       </c>
       <c r="Z120" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="121" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B121" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C121" t="s">
         <v>36</v>
@@ -8747,7 +8756,7 @@
         <v>41</v>
       </c>
       <c r="H121" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="I121" t="s">
         <v>43</v>
@@ -8780,15 +8789,15 @@
         <v>5</v>
       </c>
       <c r="Z121" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="122" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B122" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C122" t="s">
         <v>36</v>
@@ -8806,7 +8815,7 @@
         <v>41</v>
       </c>
       <c r="H122" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="I122" t="s">
         <v>43</v>
@@ -8839,15 +8848,15 @@
         <v>5</v>
       </c>
       <c r="Z122" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="123" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B123" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C123" t="s">
         <v>36</v>
@@ -8865,7 +8874,7 @@
         <v>41</v>
       </c>
       <c r="H123" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="I123" t="s">
         <v>43</v>
@@ -8898,16 +8907,16 @@
         <v>5</v>
       </c>
       <c r="Z123" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="124" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
+        <v>191</v>
+      </c>
+      <c r="B124" t="s">
         <v>197</v>
       </c>
-      <c r="B124" t="s">
-        <v>203</v>
-      </c>
       <c r="C124" t="s">
         <v>36</v>
       </c>
@@ -8924,7 +8933,7 @@
         <v>41</v>
       </c>
       <c r="H124" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="I124" t="s">
         <v>43</v>
@@ -8957,15 +8966,15 @@
         <v>5</v>
       </c>
       <c r="Z124" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="125" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B125" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C125" t="s">
         <v>36</v>
@@ -8983,7 +8992,7 @@
         <v>41</v>
       </c>
       <c r="H125" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="I125" t="s">
         <v>43</v>
@@ -9016,15 +9025,15 @@
         <v>5</v>
       </c>
       <c r="Z125" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="126" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B126" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C126" t="s">
         <v>36</v>
@@ -9042,7 +9051,7 @@
         <v>41</v>
       </c>
       <c r="H126" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="I126" t="s">
         <v>43</v>
@@ -9075,15 +9084,15 @@
         <v>5</v>
       </c>
       <c r="Z126" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="127" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B127" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C127" t="s">
         <v>36</v>
@@ -9101,7 +9110,7 @@
         <v>41</v>
       </c>
       <c r="H127" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="I127" t="s">
         <v>43</v>
@@ -9134,15 +9143,15 @@
         <v>5</v>
       </c>
       <c r="Z127" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="128" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B128" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C128" t="s">
         <v>36</v>
@@ -9160,7 +9169,7 @@
         <v>41</v>
       </c>
       <c r="H128" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="I128" t="s">
         <v>43</v>
@@ -9193,15 +9202,15 @@
         <v>5</v>
       </c>
       <c r="Z128" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="129" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="B129" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C129" t="s">
         <v>36</v>
@@ -9219,7 +9228,7 @@
         <v>41</v>
       </c>
       <c r="H129" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="I129" t="s">
         <v>43</v>
@@ -9252,15 +9261,15 @@
         <v>5</v>
       </c>
       <c r="Z129" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="130" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B130" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C130" t="s">
         <v>36</v>
@@ -9278,16 +9287,16 @@
         <v>41</v>
       </c>
       <c r="H130" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="I130" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="J130">
         <v>40</v>
       </c>
       <c r="K130" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="N130">
         <v>1</v>
@@ -9311,15 +9320,15 @@
         <v>5</v>
       </c>
       <c r="Z130" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="131" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B131" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C131" t="s">
         <v>36</v>
@@ -9337,16 +9346,16 @@
         <v>41</v>
       </c>
       <c r="H131" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="I131" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="J131">
         <v>41</v>
       </c>
       <c r="K131" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="N131">
         <v>2</v>
@@ -9370,15 +9379,15 @@
         <v>5</v>
       </c>
       <c r="Z131" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="132" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="B132" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C132" t="s">
         <v>36</v>
@@ -9396,16 +9405,16 @@
         <v>41</v>
       </c>
       <c r="H132" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="I132" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="J132">
         <v>42</v>
       </c>
       <c r="K132" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="N132">
         <v>3</v>
@@ -9429,15 +9438,15 @@
         <v>5</v>
       </c>
       <c r="Z132" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="133" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="B133" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C133" t="s">
         <v>36</v>
@@ -9455,16 +9464,16 @@
         <v>41</v>
       </c>
       <c r="H133" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="I133" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="J133">
         <v>43</v>
       </c>
       <c r="K133" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="N133">
         <v>4</v>
@@ -9488,15 +9497,15 @@
         <v>5</v>
       </c>
       <c r="Z133" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="134" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B134" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C134" t="s">
         <v>36</v>
@@ -9514,16 +9523,16 @@
         <v>41</v>
       </c>
       <c r="H134" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="I134" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="J134">
         <v>44</v>
       </c>
       <c r="K134" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="N134">
         <v>2</v>
@@ -9547,15 +9556,15 @@
         <v>5</v>
       </c>
       <c r="Z134" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="135" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B135" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C135" t="s">
         <v>36</v>
@@ -9573,16 +9582,16 @@
         <v>41</v>
       </c>
       <c r="H135" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="I135" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J135">
         <v>40</v>
       </c>
       <c r="K135" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="N135">
         <v>1</v>
@@ -9606,15 +9615,15 @@
         <v>5</v>
       </c>
       <c r="Z135" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="136" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B136" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C136" t="s">
         <v>36</v>
@@ -9632,16 +9641,16 @@
         <v>41</v>
       </c>
       <c r="H136" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="I136" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J136">
         <v>41</v>
       </c>
       <c r="K136" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="N136">
         <v>2</v>
@@ -9665,15 +9674,15 @@
         <v>5</v>
       </c>
       <c r="Z136" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="137" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B137" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C137" t="s">
         <v>36</v>
@@ -9691,16 +9700,16 @@
         <v>41</v>
       </c>
       <c r="H137" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="I137" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J137">
         <v>42</v>
       </c>
       <c r="K137" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="N137">
         <v>3</v>
@@ -9724,15 +9733,15 @@
         <v>5</v>
       </c>
       <c r="Z137" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="138" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B138" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C138" t="s">
         <v>36</v>
@@ -9750,16 +9759,16 @@
         <v>41</v>
       </c>
       <c r="H138" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="I138" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J138">
         <v>43</v>
       </c>
       <c r="K138" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="N138">
         <v>4</v>
@@ -9783,15 +9792,15 @@
         <v>5</v>
       </c>
       <c r="Z138" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="139" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B139" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C139" t="s">
         <v>36</v>
@@ -9809,16 +9818,16 @@
         <v>41</v>
       </c>
       <c r="H139" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="I139" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J139">
         <v>44</v>
       </c>
       <c r="K139" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="N139">
         <v>2</v>
@@ -9842,15 +9851,15 @@
         <v>5</v>
       </c>
       <c r="Z139" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="140" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="B140" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C140" t="s">
         <v>36</v>
@@ -9868,16 +9877,16 @@
         <v>41</v>
       </c>
       <c r="H140" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="I140" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="J140">
         <v>40</v>
       </c>
       <c r="K140" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="N140">
         <v>1</v>
@@ -9901,15 +9910,15 @@
         <v>5</v>
       </c>
       <c r="Z140" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="141" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B141" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C141" t="s">
         <v>36</v>
@@ -9927,16 +9936,16 @@
         <v>41</v>
       </c>
       <c r="H141" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="I141" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="J141">
         <v>41</v>
       </c>
       <c r="K141" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="N141">
         <v>2</v>
@@ -9960,15 +9969,15 @@
         <v>5</v>
       </c>
       <c r="Z141" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="142" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B142" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C142" t="s">
         <v>36</v>
@@ -9986,16 +9995,16 @@
         <v>41</v>
       </c>
       <c r="H142" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="I142" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="J142">
         <v>42</v>
       </c>
       <c r="K142" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="N142">
         <v>3</v>
@@ -10019,15 +10028,15 @@
         <v>5</v>
       </c>
       <c r="Z142" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="143" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B143" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C143" t="s">
         <v>36</v>
@@ -10045,16 +10054,16 @@
         <v>41</v>
       </c>
       <c r="H143" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="I143" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="J143">
         <v>43</v>
       </c>
       <c r="K143" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="N143">
         <v>4</v>
@@ -10078,15 +10087,15 @@
         <v>5</v>
       </c>
       <c r="Z143" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="144" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B144" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C144" t="s">
         <v>36</v>
@@ -10104,16 +10113,16 @@
         <v>41</v>
       </c>
       <c r="H144" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="I144" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="J144">
         <v>44</v>
       </c>
       <c r="K144" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="N144">
         <v>2</v>
@@ -10137,42 +10146,42 @@
         <v>5</v>
       </c>
       <c r="Z144" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="145" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
+        <v>220</v>
+      </c>
+      <c r="B145" t="s">
+        <v>225</v>
+      </c>
+      <c r="C145" t="s">
+        <v>36</v>
+      </c>
+      <c r="D145" t="s">
+        <v>37</v>
+      </c>
+      <c r="E145" t="s">
+        <v>39</v>
+      </c>
+      <c r="F145" t="s">
+        <v>40</v>
+      </c>
+      <c r="G145" t="s">
         <v>226</v>
       </c>
-      <c r="B145" t="s">
-        <v>231</v>
-      </c>
-      <c r="C145" t="s">
-        <v>36</v>
-      </c>
-      <c r="D145" t="s">
-        <v>37</v>
-      </c>
-      <c r="E145" t="s">
-        <v>39</v>
-      </c>
-      <c r="F145" t="s">
-        <v>40</v>
-      </c>
-      <c r="G145" t="s">
-        <v>232</v>
-      </c>
       <c r="H145" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="I145" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="J145">
         <v>36</v>
       </c>
       <c r="K145" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="N145">
         <v>3</v>
@@ -10196,42 +10205,42 @@
         <v>5</v>
       </c>
       <c r="Z145" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="146" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
+        <v>221</v>
+      </c>
+      <c r="B146" t="s">
+        <v>225</v>
+      </c>
+      <c r="C146" t="s">
+        <v>36</v>
+      </c>
+      <c r="D146" t="s">
+        <v>37</v>
+      </c>
+      <c r="E146" t="s">
+        <v>39</v>
+      </c>
+      <c r="F146" t="s">
+        <v>40</v>
+      </c>
+      <c r="G146" t="s">
+        <v>226</v>
+      </c>
+      <c r="H146" t="s">
         <v>227</v>
       </c>
-      <c r="B146" t="s">
-        <v>231</v>
-      </c>
-      <c r="C146" t="s">
-        <v>36</v>
-      </c>
-      <c r="D146" t="s">
-        <v>37</v>
-      </c>
-      <c r="E146" t="s">
-        <v>39</v>
-      </c>
-      <c r="F146" t="s">
-        <v>40</v>
-      </c>
-      <c r="G146" t="s">
-        <v>232</v>
-      </c>
-      <c r="H146" t="s">
-        <v>233</v>
-      </c>
       <c r="I146" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="J146">
         <v>37</v>
       </c>
       <c r="K146" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="N146">
         <v>4</v>
@@ -10255,15 +10264,15 @@
         <v>5</v>
       </c>
       <c r="Z146" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="147" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B147" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C147" t="s">
         <v>36</v>
@@ -10278,19 +10287,19 @@
         <v>40</v>
       </c>
       <c r="G147" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="H147" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="I147" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="J147">
         <v>38</v>
       </c>
       <c r="K147" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="N147">
         <v>5</v>
@@ -10314,15 +10323,15 @@
         <v>5</v>
       </c>
       <c r="Z147" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="148" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B148" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C148" t="s">
         <v>36</v>
@@ -10337,19 +10346,19 @@
         <v>40</v>
       </c>
       <c r="G148" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="H148" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="I148" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="J148">
         <v>39</v>
       </c>
       <c r="K148" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="N148">
         <v>5</v>
@@ -10373,15 +10382,15 @@
         <v>5</v>
       </c>
       <c r="Z148" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="149" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B149" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C149" t="s">
         <v>36</v>
@@ -10396,19 +10405,19 @@
         <v>40</v>
       </c>
       <c r="G149" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="H149" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="I149" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="J149">
         <v>40</v>
       </c>
       <c r="K149" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="N149">
         <v>3</v>
@@ -10432,15 +10441,15 @@
         <v>5</v>
       </c>
       <c r="Z149" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="150" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B150" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C150" t="s">
         <v>36</v>
@@ -10455,19 +10464,19 @@
         <v>40</v>
       </c>
       <c r="G150" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="H150" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="I150" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="J150">
         <v>36</v>
       </c>
       <c r="K150" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="N150">
         <v>3</v>
@@ -10491,15 +10500,15 @@
         <v>5</v>
       </c>
       <c r="Z150" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="151" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B151" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C151" t="s">
         <v>36</v>
@@ -10514,19 +10523,19 @@
         <v>40</v>
       </c>
       <c r="G151" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="H151" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="I151" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="J151">
         <v>37</v>
       </c>
       <c r="K151" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="N151">
         <v>4</v>
@@ -10550,15 +10559,15 @@
         <v>5</v>
       </c>
       <c r="Z151" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="152" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B152" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C152" t="s">
         <v>36</v>
@@ -10573,19 +10582,19 @@
         <v>40</v>
       </c>
       <c r="G152" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="H152" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="I152" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="J152">
         <v>38</v>
       </c>
       <c r="K152" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="N152">
         <v>5</v>
@@ -10609,15 +10618,15 @@
         <v>5</v>
       </c>
       <c r="Z152" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="153" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B153" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C153" t="s">
         <v>36</v>
@@ -10632,19 +10641,19 @@
         <v>40</v>
       </c>
       <c r="G153" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="H153" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="I153" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="J153">
         <v>39</v>
       </c>
       <c r="K153" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="N153">
         <v>5</v>
@@ -10668,15 +10677,15 @@
         <v>5</v>
       </c>
       <c r="Z153" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="154" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B154" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C154" t="s">
         <v>36</v>
@@ -10691,19 +10700,19 @@
         <v>40</v>
       </c>
       <c r="G154" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="H154" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="I154" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="J154">
         <v>40</v>
       </c>
       <c r="K154" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="N154">
         <v>3</v>
@@ -10727,15 +10736,15 @@
         <v>5</v>
       </c>
       <c r="Z154" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="155" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="B155" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C155" t="s">
         <v>36</v>
@@ -10753,16 +10762,16 @@
         <v>41</v>
       </c>
       <c r="H155" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="I155" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="J155">
         <v>36</v>
       </c>
       <c r="K155" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="N155">
         <v>2</v>
@@ -10786,15 +10795,15 @@
         <v>5</v>
       </c>
       <c r="Z155" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="156" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="B156" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C156" t="s">
         <v>36</v>
@@ -10812,16 +10821,16 @@
         <v>41</v>
       </c>
       <c r="H156" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="I156" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="J156">
         <v>37</v>
       </c>
       <c r="K156" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="N156">
         <v>3</v>
@@ -10845,15 +10854,15 @@
         <v>5</v>
       </c>
       <c r="Z156" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="157" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="B157" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C157" t="s">
         <v>36</v>
@@ -10871,16 +10880,16 @@
         <v>41</v>
       </c>
       <c r="H157" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="I157" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="J157">
         <v>38</v>
       </c>
       <c r="K157" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="N157">
         <v>3</v>
@@ -10904,15 +10913,15 @@
         <v>5</v>
       </c>
       <c r="Z157" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="158" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="B158" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C158" t="s">
         <v>36</v>
@@ -10930,16 +10939,16 @@
         <v>41</v>
       </c>
       <c r="H158" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="I158" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="J158">
         <v>39</v>
       </c>
       <c r="K158" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="N158">
         <v>2</v>
@@ -10963,15 +10972,15 @@
         <v>5</v>
       </c>
       <c r="Z158" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="159" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B159" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C159" t="s">
         <v>36</v>
@@ -10989,16 +10998,16 @@
         <v>41</v>
       </c>
       <c r="H159" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="I159" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="J159">
         <v>40</v>
       </c>
       <c r="K159" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="N159">
         <v>2</v>
@@ -11022,15 +11031,15 @@
         <v>5</v>
       </c>
       <c r="Z159" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="160" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="B160" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C160" t="s">
         <v>36</v>
@@ -11048,16 +11057,16 @@
         <v>41</v>
       </c>
       <c r="H160" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="I160" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="J160">
         <v>36</v>
       </c>
       <c r="K160" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="N160">
         <v>2</v>
@@ -11081,15 +11090,15 @@
         <v>5</v>
       </c>
       <c r="Z160" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="161" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="B161" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C161" t="s">
         <v>36</v>
@@ -11107,16 +11116,16 @@
         <v>41</v>
       </c>
       <c r="H161" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="I161" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="J161">
         <v>37</v>
       </c>
       <c r="K161" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="N161">
         <v>3</v>
@@ -11140,15 +11149,15 @@
         <v>5</v>
       </c>
       <c r="Z161" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="162" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B162" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C162" t="s">
         <v>36</v>
@@ -11166,16 +11175,16 @@
         <v>41</v>
       </c>
       <c r="H162" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="I162" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="J162">
         <v>38</v>
       </c>
       <c r="K162" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="N162">
         <v>3</v>
@@ -11199,15 +11208,15 @@
         <v>5</v>
       </c>
       <c r="Z162" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="163" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B163" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C163" t="s">
         <v>36</v>
@@ -11225,16 +11234,16 @@
         <v>41</v>
       </c>
       <c r="H163" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="I163" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="J163">
         <v>39</v>
       </c>
       <c r="K163" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="N163">
         <v>2</v>
@@ -11258,15 +11267,15 @@
         <v>5</v>
       </c>
       <c r="Z163" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="164" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B164" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C164" t="s">
         <v>36</v>
@@ -11284,16 +11293,16 @@
         <v>41</v>
       </c>
       <c r="H164" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="I164" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="J164">
         <v>40</v>
       </c>
       <c r="K164" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="N164">
         <v>2</v>
@@ -11317,15 +11326,15 @@
         <v>5</v>
       </c>
       <c r="Z164" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="165" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B165" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C165" t="s">
         <v>36</v>
@@ -11340,19 +11349,19 @@
         <v>40</v>
       </c>
       <c r="G165" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="H165" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="I165" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="J165">
         <v>36</v>
       </c>
       <c r="K165" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="N165">
         <v>2</v>
@@ -11376,15 +11385,15 @@
         <v>5</v>
       </c>
       <c r="Z165" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="166" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="B166" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C166" t="s">
         <v>36</v>
@@ -11399,19 +11408,19 @@
         <v>40</v>
       </c>
       <c r="G166" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="H166" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="I166" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="J166">
         <v>37</v>
       </c>
       <c r="K166" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="N166">
         <v>3</v>
@@ -11435,15 +11444,15 @@
         <v>5</v>
       </c>
       <c r="Z166" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="167" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="B167" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C167" t="s">
         <v>36</v>
@@ -11458,19 +11467,19 @@
         <v>40</v>
       </c>
       <c r="G167" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="H167" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="I167" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="J167">
         <v>38</v>
       </c>
       <c r="K167" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="N167">
         <v>3</v>
@@ -11494,15 +11503,15 @@
         <v>5</v>
       </c>
       <c r="Z167" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="168" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="B168" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C168" t="s">
         <v>36</v>
@@ -11517,19 +11526,19 @@
         <v>40</v>
       </c>
       <c r="G168" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="H168" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="I168" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="J168">
         <v>39</v>
       </c>
       <c r="K168" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="N168">
         <v>2</v>
@@ -11553,15 +11562,15 @@
         <v>5</v>
       </c>
       <c r="Z168" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="169" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="B169" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C169" t="s">
         <v>36</v>
@@ -11576,19 +11585,19 @@
         <v>40</v>
       </c>
       <c r="G169" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="H169" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="I169" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="J169">
         <v>40</v>
       </c>
       <c r="K169" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="N169">
         <v>2</v>
@@ -11612,15 +11621,15 @@
         <v>5</v>
       </c>
       <c r="Z169" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="170" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B170" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C170" t="s">
         <v>36</v>
@@ -11635,19 +11644,19 @@
         <v>40</v>
       </c>
       <c r="G170" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="H170" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="I170" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="J170">
         <v>36</v>
       </c>
       <c r="K170" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="N170">
         <v>2</v>
@@ -11671,15 +11680,15 @@
         <v>5</v>
       </c>
       <c r="Z170" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="171" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B171" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C171" t="s">
         <v>36</v>
@@ -11694,19 +11703,19 @@
         <v>40</v>
       </c>
       <c r="G171" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="H171" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="I171" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="J171">
         <v>37</v>
       </c>
       <c r="K171" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="N171">
         <v>3</v>
@@ -11730,15 +11739,15 @@
         <v>5</v>
       </c>
       <c r="Z171" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="172" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="B172" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C172" t="s">
         <v>36</v>
@@ -11753,19 +11762,19 @@
         <v>40</v>
       </c>
       <c r="G172" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="H172" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="I172" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="J172">
         <v>38</v>
       </c>
       <c r="K172" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="N172">
         <v>3</v>
@@ -11789,15 +11798,15 @@
         <v>5</v>
       </c>
       <c r="Z172" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="173" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B173" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C173" t="s">
         <v>36</v>
@@ -11812,19 +11821,19 @@
         <v>40</v>
       </c>
       <c r="G173" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="H173" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="I173" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="J173">
         <v>39</v>
       </c>
       <c r="K173" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="N173">
         <v>2</v>
@@ -11848,15 +11857,15 @@
         <v>5</v>
       </c>
       <c r="Z173" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="174" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B174" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C174" t="s">
         <v>36</v>
@@ -11871,19 +11880,19 @@
         <v>40</v>
       </c>
       <c r="G174" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="H174" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="I174" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="J174">
         <v>40</v>
       </c>
       <c r="K174" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="N174">
         <v>2</v>
@@ -11907,15 +11916,15 @@
         <v>5</v>
       </c>
       <c r="Z174" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="175" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="B175" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="C175" t="s">
         <v>36</v>
@@ -11930,19 +11939,19 @@
         <v>40</v>
       </c>
       <c r="G175" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="H175" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="I175" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="J175">
         <v>36</v>
       </c>
       <c r="K175" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="N175">
         <v>3</v>
@@ -11966,15 +11975,15 @@
         <v>5</v>
       </c>
       <c r="Z175" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="176" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="B176" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="C176" t="s">
         <v>36</v>
@@ -11989,19 +11998,19 @@
         <v>40</v>
       </c>
       <c r="G176" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="H176" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="I176" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="J176">
         <v>37</v>
       </c>
       <c r="K176" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="N176">
         <v>4</v>
@@ -12025,15 +12034,15 @@
         <v>5</v>
       </c>
       <c r="Z176" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="177" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B177" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="C177" t="s">
         <v>36</v>
@@ -12048,19 +12057,19 @@
         <v>40</v>
       </c>
       <c r="G177" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="H177" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="I177" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="J177">
         <v>38</v>
       </c>
       <c r="K177" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="N177">
         <v>5</v>
@@ -12084,15 +12093,15 @@
         <v>5</v>
       </c>
       <c r="Z177" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="178" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="B178" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="C178" t="s">
         <v>36</v>
@@ -12107,19 +12116,19 @@
         <v>40</v>
       </c>
       <c r="G178" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="H178" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="I178" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="J178">
         <v>39</v>
       </c>
       <c r="K178" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="N178">
         <v>5</v>
@@ -12143,15 +12152,15 @@
         <v>5</v>
       </c>
       <c r="Z178" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="179" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B179" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="C179" t="s">
         <v>36</v>
@@ -12166,19 +12175,19 @@
         <v>40</v>
       </c>
       <c r="G179" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="H179" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="I179" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="J179">
         <v>40</v>
       </c>
       <c r="K179" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="N179">
         <v>3</v>
@@ -12202,15 +12211,15 @@
         <v>5</v>
       </c>
       <c r="Z179" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="180" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="B180" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="C180" t="s">
         <v>36</v>
@@ -12225,19 +12234,19 @@
         <v>40</v>
       </c>
       <c r="G180" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="H180" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="I180" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="J180">
         <v>36</v>
       </c>
       <c r="K180" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="N180">
         <v>3</v>
@@ -12261,15 +12270,15 @@
         <v>5</v>
       </c>
       <c r="Z180" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="181" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="B181" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="C181" t="s">
         <v>36</v>
@@ -12284,19 +12293,19 @@
         <v>40</v>
       </c>
       <c r="G181" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="H181" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="I181" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="J181">
         <v>37</v>
       </c>
       <c r="K181" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="N181">
         <v>4</v>
@@ -12320,15 +12329,15 @@
         <v>5</v>
       </c>
       <c r="Z181" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="182" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B182" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="C182" t="s">
         <v>36</v>
@@ -12343,19 +12352,19 @@
         <v>40</v>
       </c>
       <c r="G182" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="H182" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="I182" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="J182">
         <v>38</v>
       </c>
       <c r="K182" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="N182">
         <v>5</v>
@@ -12379,15 +12388,15 @@
         <v>5</v>
       </c>
       <c r="Z182" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="183" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="B183" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="C183" t="s">
         <v>36</v>
@@ -12402,19 +12411,19 @@
         <v>40</v>
       </c>
       <c r="G183" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="H183" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="I183" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="J183">
         <v>39</v>
       </c>
       <c r="K183" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="N183">
         <v>5</v>
@@ -12438,15 +12447,15 @@
         <v>5</v>
       </c>
       <c r="Z183" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="184" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B184" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="C184" t="s">
         <v>36</v>
@@ -12461,19 +12470,19 @@
         <v>40</v>
       </c>
       <c r="G184" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="H184" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="I184" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="J184">
         <v>40</v>
       </c>
       <c r="K184" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="N184">
         <v>3</v>
@@ -12497,15 +12506,15 @@
         <v>5</v>
       </c>
       <c r="Z184" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="185" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="B185" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="C185" t="s">
         <v>36</v>
@@ -12520,19 +12529,19 @@
         <v>40</v>
       </c>
       <c r="G185" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="H185" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="I185" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="J185">
         <v>36</v>
       </c>
       <c r="K185" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="N185">
         <v>2</v>
@@ -12556,15 +12565,15 @@
         <v>5</v>
       </c>
       <c r="Z185" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="186" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B186" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="C186" t="s">
         <v>36</v>
@@ -12579,19 +12588,19 @@
         <v>40</v>
       </c>
       <c r="G186" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="H186" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="I186" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="J186">
         <v>37</v>
       </c>
       <c r="K186" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="N186">
         <v>3</v>
@@ -12615,15 +12624,15 @@
         <v>5</v>
       </c>
       <c r="Z186" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="187" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="B187" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="C187" t="s">
         <v>36</v>
@@ -12638,19 +12647,19 @@
         <v>40</v>
       </c>
       <c r="G187" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="H187" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="I187" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="J187">
         <v>38</v>
       </c>
       <c r="K187" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="N187">
         <v>3</v>
@@ -12674,15 +12683,15 @@
         <v>5</v>
       </c>
       <c r="Z187" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="188" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="B188" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="C188" t="s">
         <v>36</v>
@@ -12697,19 +12706,19 @@
         <v>40</v>
       </c>
       <c r="G188" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="H188" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="I188" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="J188">
         <v>39</v>
       </c>
       <c r="K188" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="N188">
         <v>2</v>
@@ -12733,15 +12742,15 @@
         <v>5</v>
       </c>
       <c r="Z188" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="189" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="B189" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="C189" t="s">
         <v>36</v>
@@ -12756,19 +12765,19 @@
         <v>40</v>
       </c>
       <c r="G189" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="H189" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="I189" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="J189">
         <v>40</v>
       </c>
       <c r="K189" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="N189">
         <v>2</v>
@@ -12792,15 +12801,15 @@
         <v>5</v>
       </c>
       <c r="Z189" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="190" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
+        <v>282</v>
+      </c>
+      <c r="B190" t="s">
         <v>288</v>
-      </c>
-      <c r="B190" t="s">
-        <v>294</v>
       </c>
       <c r="C190" t="s">
         <v>36</v>
@@ -12818,7 +12827,7 @@
         <v>41</v>
       </c>
       <c r="H190" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="I190" t="s">
         <v>53</v>
@@ -12827,7 +12836,7 @@
         <v>40</v>
       </c>
       <c r="K190" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="N190">
         <v>1</v>
@@ -12851,15 +12860,15 @@
         <v>5</v>
       </c>
       <c r="Z190" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="191" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B191" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="C191" t="s">
         <v>36</v>
@@ -12877,7 +12886,7 @@
         <v>41</v>
       </c>
       <c r="H191" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="I191" t="s">
         <v>53</v>
@@ -12886,7 +12895,7 @@
         <v>41</v>
       </c>
       <c r="K191" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="N191">
         <v>1</v>
@@ -12910,15 +12919,15 @@
         <v>5</v>
       </c>
       <c r="Z191" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="192" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="B192" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="C192" t="s">
         <v>36</v>
@@ -12936,7 +12945,7 @@
         <v>41</v>
       </c>
       <c r="H192" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="I192" t="s">
         <v>53</v>
@@ -12945,7 +12954,7 @@
         <v>42</v>
       </c>
       <c r="K192" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="N192">
         <v>2</v>
@@ -12969,15 +12978,15 @@
         <v>5</v>
       </c>
       <c r="Z192" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="193" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="B193" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="C193" t="s">
         <v>36</v>
@@ -12995,7 +13004,7 @@
         <v>41</v>
       </c>
       <c r="H193" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="I193" t="s">
         <v>53</v>
@@ -13004,7 +13013,7 @@
         <v>43</v>
       </c>
       <c r="K193" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="N193">
         <v>2</v>
@@ -13028,15 +13037,15 @@
         <v>5</v>
       </c>
       <c r="Z193" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="194" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="B194" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="C194" t="s">
         <v>36</v>
@@ -13054,7 +13063,7 @@
         <v>41</v>
       </c>
       <c r="H194" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="I194" t="s">
         <v>53</v>
@@ -13063,7 +13072,7 @@
         <v>44</v>
       </c>
       <c r="K194" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="N194">
         <v>1</v>
@@ -13087,15 +13096,15 @@
         <v>5</v>
       </c>
       <c r="Z194" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="195" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B195" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="C195" t="s">
         <v>36</v>
@@ -13113,7 +13122,7 @@
         <v>41</v>
       </c>
       <c r="H195" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="I195" t="s">
         <v>53</v>
@@ -13122,7 +13131,7 @@
         <v>45</v>
       </c>
       <c r="K195" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="N195">
         <v>1</v>
@@ -13146,15 +13155,15 @@
         <v>5</v>
       </c>
       <c r="Z195" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="196" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
+        <v>289</v>
+      </c>
+      <c r="B196" t="s">
         <v>295</v>
-      </c>
-      <c r="B196" t="s">
-        <v>301</v>
       </c>
       <c r="C196" t="s">
         <v>36</v>
@@ -13172,16 +13181,16 @@
         <v>41</v>
       </c>
       <c r="H196" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="I196" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="J196">
         <v>40</v>
       </c>
       <c r="K196" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="N196">
         <v>1</v>
@@ -13205,15 +13214,15 @@
         <v>5</v>
       </c>
       <c r="Z196" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="197" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B197" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="C197" t="s">
         <v>36</v>
@@ -13231,16 +13240,16 @@
         <v>41</v>
       </c>
       <c r="H197" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="I197" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="J197">
         <v>41</v>
       </c>
       <c r="K197" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="N197">
         <v>2</v>
@@ -13264,15 +13273,15 @@
         <v>5</v>
       </c>
       <c r="Z197" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="198" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="B198" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="C198" t="s">
         <v>36</v>
@@ -13290,16 +13299,16 @@
         <v>41</v>
       </c>
       <c r="H198" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="I198" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="J198">
         <v>42</v>
       </c>
       <c r="K198" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="N198">
         <v>3</v>
@@ -13323,15 +13332,15 @@
         <v>5</v>
       </c>
       <c r="Z198" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="199" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="B199" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="C199" t="s">
         <v>36</v>
@@ -13349,16 +13358,16 @@
         <v>41</v>
       </c>
       <c r="H199" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="I199" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="J199">
         <v>43</v>
       </c>
       <c r="K199" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="N199">
         <v>3</v>
@@ -13382,15 +13391,15 @@
         <v>5</v>
       </c>
       <c r="Z199" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="200" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B200" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="C200" t="s">
         <v>36</v>
@@ -13408,16 +13417,16 @@
         <v>41</v>
       </c>
       <c r="H200" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="I200" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="J200">
         <v>44</v>
       </c>
       <c r="K200" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="N200">
         <v>2</v>
@@ -13441,15 +13450,15 @@
         <v>5</v>
       </c>
       <c r="Z200" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="201" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="B201" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="C201" t="s">
         <v>36</v>
@@ -13467,16 +13476,16 @@
         <v>41</v>
       </c>
       <c r="H201" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="I201" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="J201">
         <v>45</v>
       </c>
       <c r="K201" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="N201">
         <v>1</v>
@@ -13500,15 +13509,15 @@
         <v>5</v>
       </c>
       <c r="Z201" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="202" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="B202" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="C202" t="s">
         <v>36</v>
@@ -13526,16 +13535,16 @@
         <v>41</v>
       </c>
       <c r="H202" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="I202" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="J202">
         <v>36</v>
       </c>
       <c r="K202" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="N202">
         <v>2</v>
@@ -13559,15 +13568,15 @@
         <v>5</v>
       </c>
       <c r="Z202" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="203" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="B203" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="C203" t="s">
         <v>36</v>
@@ -13585,16 +13594,16 @@
         <v>41</v>
       </c>
       <c r="H203" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="I203" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="J203">
         <v>37</v>
       </c>
       <c r="K203" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="N203">
         <v>3</v>
@@ -13618,15 +13627,15 @@
         <v>5</v>
       </c>
       <c r="Z203" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="204" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B204" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="C204" t="s">
         <v>36</v>
@@ -13644,16 +13653,16 @@
         <v>41</v>
       </c>
       <c r="H204" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="I204" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="J204">
         <v>38</v>
       </c>
       <c r="K204" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="N204">
         <v>4</v>
@@ -13677,15 +13686,15 @@
         <v>5</v>
       </c>
       <c r="Z204" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="205" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B205" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="C205" t="s">
         <v>36</v>
@@ -13703,16 +13712,16 @@
         <v>41</v>
       </c>
       <c r="H205" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="I205" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="J205">
         <v>39</v>
       </c>
       <c r="K205" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="N205">
         <v>2</v>
@@ -13736,16 +13745,16 @@
         <v>5</v>
       </c>
       <c r="Z205" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="206" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
+        <v>303</v>
+      </c>
+      <c r="B206" t="s">
         <v>309</v>
       </c>
-      <c r="B206" t="s">
-        <v>315</v>
-      </c>
       <c r="C206" t="s">
         <v>36</v>
       </c>
@@ -13762,16 +13771,16 @@
         <v>41</v>
       </c>
       <c r="H206" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="I206" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="J206">
         <v>40</v>
       </c>
       <c r="K206" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="N206">
         <v>2</v>
@@ -13795,15 +13804,15 @@
         <v>5</v>
       </c>
       <c r="Z206" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="207" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="B207" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="C207" t="s">
         <v>36</v>
@@ -13821,16 +13830,16 @@
         <v>41</v>
       </c>
       <c r="H207" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="I207" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="J207">
         <v>41</v>
       </c>
       <c r="K207" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="N207">
         <v>2</v>
@@ -13854,15 +13863,15 @@
         <v>5</v>
       </c>
       <c r="Z207" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="208" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="B208" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="C208" t="s">
         <v>36</v>
@@ -13880,16 +13889,16 @@
         <v>41</v>
       </c>
       <c r="H208" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="I208" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="J208">
         <v>42</v>
       </c>
       <c r="K208" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="N208">
         <v>3</v>
@@ -13913,15 +13922,15 @@
         <v>5</v>
       </c>
       <c r="Z208" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="209" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="B209" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="C209" t="s">
         <v>36</v>
@@ -13939,16 +13948,16 @@
         <v>41</v>
       </c>
       <c r="H209" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="I209" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="J209">
         <v>43</v>
       </c>
       <c r="K209" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="N209">
         <v>3</v>
@@ -13972,15 +13981,15 @@
         <v>5</v>
       </c>
       <c r="Z209" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="210" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="B210" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="C210" t="s">
         <v>36</v>
@@ -13998,16 +14007,16 @@
         <v>41</v>
       </c>
       <c r="H210" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="I210" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="J210">
         <v>44</v>
       </c>
       <c r="K210" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="N210">
         <v>2</v>
@@ -14031,15 +14040,15 @@
         <v>5</v>
       </c>
       <c r="Z210" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="211" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="B211" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="C211" t="s">
         <v>36</v>
@@ -14057,16 +14066,16 @@
         <v>41</v>
       </c>
       <c r="H211" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="I211" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="J211">
         <v>45</v>
       </c>
       <c r="K211" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="N211">
         <v>1</v>
@@ -14090,15 +14099,15 @@
         <v>5</v>
       </c>
       <c r="Z211" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="212" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="B212" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="C212" t="s">
         <v>36</v>
@@ -14116,16 +14125,16 @@
         <v>41</v>
       </c>
       <c r="H212" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="I212" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="J212">
         <v>36</v>
       </c>
       <c r="K212" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="N212">
         <v>2</v>
@@ -14149,15 +14158,15 @@
         <v>5</v>
       </c>
       <c r="Z212" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="213" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="B213" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="C213" t="s">
         <v>36</v>
@@ -14175,16 +14184,16 @@
         <v>41</v>
       </c>
       <c r="H213" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="I213" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="J213">
         <v>37</v>
       </c>
       <c r="K213" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="N213">
         <v>3</v>
@@ -14208,15 +14217,15 @@
         <v>5</v>
       </c>
       <c r="Z213" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="214" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="B214" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="C214" t="s">
         <v>36</v>
@@ -14234,16 +14243,16 @@
         <v>41</v>
       </c>
       <c r="H214" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="I214" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="J214">
         <v>38</v>
       </c>
       <c r="K214" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="N214">
         <v>4</v>
@@ -14267,42 +14276,42 @@
         <v>5</v>
       </c>
       <c r="Z214" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="215" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
+        <v>315</v>
+      </c>
+      <c r="B215" t="s">
+        <v>333</v>
+      </c>
+      <c r="C215" t="s">
+        <v>36</v>
+      </c>
+      <c r="D215" t="s">
+        <v>37</v>
+      </c>
+      <c r="E215" t="s">
+        <v>39</v>
+      </c>
+      <c r="F215" t="s">
+        <v>40</v>
+      </c>
+      <c r="G215" t="s">
+        <v>41</v>
+      </c>
+      <c r="H215" t="s">
+        <v>310</v>
+      </c>
+      <c r="I215" t="s">
         <v>321</v>
       </c>
-      <c r="B215" t="s">
-        <v>339</v>
-      </c>
-      <c r="C215" t="s">
-        <v>36</v>
-      </c>
-      <c r="D215" t="s">
-        <v>37</v>
-      </c>
-      <c r="E215" t="s">
-        <v>39</v>
-      </c>
-      <c r="F215" t="s">
-        <v>40</v>
-      </c>
-      <c r="G215" t="s">
-        <v>41</v>
-      </c>
-      <c r="H215" t="s">
-        <v>316</v>
-      </c>
-      <c r="I215" t="s">
-        <v>327</v>
-      </c>
       <c r="J215">
         <v>39</v>
       </c>
       <c r="K215" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="N215">
         <v>2</v>
@@ -14326,15 +14335,15 @@
         <v>5</v>
       </c>
       <c r="Z215" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="216" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B216" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="C216" t="s">
         <v>36</v>
@@ -14352,16 +14361,16 @@
         <v>41</v>
       </c>
       <c r="H216" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="I216" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="J216">
         <v>40</v>
       </c>
       <c r="K216" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="N216">
         <v>2</v>
@@ -14385,15 +14394,15 @@
         <v>5</v>
       </c>
       <c r="Z216" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="217" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="B217" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="C217" t="s">
         <v>36</v>
@@ -14411,16 +14420,16 @@
         <v>41</v>
       </c>
       <c r="H217" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="I217" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="J217">
         <v>41</v>
       </c>
       <c r="K217" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="N217">
         <v>2</v>
@@ -14444,15 +14453,15 @@
         <v>5</v>
       </c>
       <c r="Z217" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="218" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="B218" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="C218" t="s">
         <v>36</v>
@@ -14470,16 +14479,16 @@
         <v>41</v>
       </c>
       <c r="H218" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="I218" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="J218">
         <v>42</v>
       </c>
       <c r="K218" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="N218">
         <v>3</v>
@@ -14503,15 +14512,15 @@
         <v>5</v>
       </c>
       <c r="Z218" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="219" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="B219" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="C219" t="s">
         <v>36</v>
@@ -14529,16 +14538,16 @@
         <v>41</v>
       </c>
       <c r="H219" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="I219" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="J219">
         <v>43</v>
       </c>
       <c r="K219" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="N219">
         <v>3</v>
@@ -14562,15 +14571,15 @@
         <v>5</v>
       </c>
       <c r="Z219" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="220" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="B220" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="C220" t="s">
         <v>36</v>
@@ -14588,16 +14597,16 @@
         <v>41</v>
       </c>
       <c r="H220" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="I220" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="J220">
         <v>44</v>
       </c>
       <c r="K220" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="N220">
         <v>2</v>
@@ -14621,15 +14630,15 @@
         <v>5</v>
       </c>
       <c r="Z220" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="221" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="B221" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="C221" t="s">
         <v>36</v>
@@ -14647,16 +14656,16 @@
         <v>41</v>
       </c>
       <c r="H221" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="I221" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="J221">
         <v>45</v>
       </c>
       <c r="K221" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="N221">
         <v>1</v>
@@ -14680,15 +14689,15 @@
         <v>5</v>
       </c>
       <c r="Z221" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="222" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="B222" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="C222" t="s">
         <v>36</v>
@@ -14706,7 +14715,7 @@
         <v>41</v>
       </c>
       <c r="H222" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="I222" t="s">
         <v>43</v>
@@ -14715,7 +14724,7 @@
         <v>36</v>
       </c>
       <c r="K222" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="N222">
         <v>2</v>
@@ -14739,15 +14748,15 @@
         <v>5</v>
       </c>
       <c r="Z222" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="223" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="B223" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="C223" t="s">
         <v>36</v>
@@ -14765,7 +14774,7 @@
         <v>41</v>
       </c>
       <c r="H223" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="I223" t="s">
         <v>43</v>
@@ -14774,7 +14783,7 @@
         <v>37</v>
       </c>
       <c r="K223" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="N223">
         <v>3</v>
@@ -14798,15 +14807,15 @@
         <v>5</v>
       </c>
       <c r="Z223" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="224" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B224" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="C224" t="s">
         <v>36</v>
@@ -14824,7 +14833,7 @@
         <v>41</v>
       </c>
       <c r="H224" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="I224" t="s">
         <v>43</v>
@@ -14833,7 +14842,7 @@
         <v>38</v>
       </c>
       <c r="K224" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="N224">
         <v>4</v>
@@ -14857,15 +14866,15 @@
         <v>5</v>
       </c>
       <c r="Z224" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="225" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="B225" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="C225" t="s">
         <v>36</v>
@@ -14883,7 +14892,7 @@
         <v>41</v>
       </c>
       <c r="H225" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="I225" t="s">
         <v>43</v>
@@ -14892,7 +14901,7 @@
         <v>39</v>
       </c>
       <c r="K225" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="N225">
         <v>2</v>
@@ -14916,16 +14925,16 @@
         <v>5</v>
       </c>
       <c r="Z225" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="226" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
+        <v>326</v>
+      </c>
+      <c r="B226" t="s">
         <v>332</v>
       </c>
-      <c r="B226" t="s">
-        <v>338</v>
-      </c>
       <c r="C226" t="s">
         <v>36</v>
       </c>
@@ -14942,7 +14951,7 @@
         <v>41</v>
       </c>
       <c r="H226" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="I226" t="s">
         <v>43</v>
@@ -14951,7 +14960,7 @@
         <v>40</v>
       </c>
       <c r="K226" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="N226">
         <v>2</v>
@@ -14975,15 +14984,15 @@
         <v>5</v>
       </c>
       <c r="Z226" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="227" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="B227" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="C227" t="s">
         <v>36</v>
@@ -15001,7 +15010,7 @@
         <v>41</v>
       </c>
       <c r="H227" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="I227" t="s">
         <v>43</v>
@@ -15010,7 +15019,7 @@
         <v>41</v>
       </c>
       <c r="K227" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="N227">
         <v>2</v>
@@ -15034,15 +15043,15 @@
         <v>5</v>
       </c>
       <c r="Z227" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="228" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="B228" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="C228" t="s">
         <v>36</v>
@@ -15060,7 +15069,7 @@
         <v>41</v>
       </c>
       <c r="H228" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="I228" t="s">
         <v>43</v>
@@ -15069,7 +15078,7 @@
         <v>42</v>
       </c>
       <c r="K228" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="N228">
         <v>3</v>
@@ -15093,15 +15102,15 @@
         <v>5</v>
       </c>
       <c r="Z228" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="229" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="B229" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="C229" t="s">
         <v>36</v>
@@ -15119,7 +15128,7 @@
         <v>41</v>
       </c>
       <c r="H229" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="I229" t="s">
         <v>43</v>
@@ -15128,7 +15137,7 @@
         <v>43</v>
       </c>
       <c r="K229" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="N229">
         <v>3</v>
@@ -15152,15 +15161,15 @@
         <v>5</v>
       </c>
       <c r="Z229" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="230" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="B230" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="C230" t="s">
         <v>36</v>
@@ -15178,7 +15187,7 @@
         <v>41</v>
       </c>
       <c r="H230" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="I230" t="s">
         <v>43</v>
@@ -15187,7 +15196,7 @@
         <v>44</v>
       </c>
       <c r="K230" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="N230">
         <v>2</v>
@@ -15211,15 +15220,15 @@
         <v>5</v>
       </c>
       <c r="Z230" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="231" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="B231" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="C231" t="s">
         <v>36</v>
@@ -15237,7 +15246,7 @@
         <v>41</v>
       </c>
       <c r="H231" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="I231" t="s">
         <v>43</v>
@@ -15246,7 +15255,7 @@
         <v>45</v>
       </c>
       <c r="K231" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="N231">
         <v>1</v>
@@ -15270,15 +15279,15 @@
         <v>5</v>
       </c>
       <c r="Z231" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="232" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="B232" t="s">
-        <v>346</v>
+        <v>394</v>
       </c>
       <c r="C232" t="s">
         <v>36</v>
@@ -15296,16 +15305,16 @@
         <v>41</v>
       </c>
       <c r="H232" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="I232" t="s">
-        <v>347</v>
+        <v>395</v>
       </c>
       <c r="J232">
         <v>36</v>
       </c>
       <c r="K232" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="N232">
         <v>2</v>
@@ -15329,15 +15338,15 @@
         <v>5</v>
       </c>
       <c r="Z232" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="233" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B233" t="s">
-        <v>346</v>
+        <v>394</v>
       </c>
       <c r="C233" t="s">
         <v>36</v>
@@ -15355,16 +15364,16 @@
         <v>41</v>
       </c>
       <c r="H233" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="I233" t="s">
-        <v>347</v>
+        <v>395</v>
       </c>
       <c r="J233">
         <v>37</v>
       </c>
       <c r="K233" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="N233">
         <v>3</v>
@@ -15388,15 +15397,15 @@
         <v>5</v>
       </c>
       <c r="Z233" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="234" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="B234" t="s">
-        <v>346</v>
+        <v>394</v>
       </c>
       <c r="C234" t="s">
         <v>36</v>
@@ -15414,16 +15423,16 @@
         <v>41</v>
       </c>
       <c r="H234" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="I234" t="s">
-        <v>347</v>
+        <v>395</v>
       </c>
       <c r="J234">
         <v>38</v>
       </c>
       <c r="K234" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="N234">
         <v>4</v>
@@ -15447,15 +15456,15 @@
         <v>5</v>
       </c>
       <c r="Z234" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="235" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="B235" t="s">
-        <v>346</v>
+        <v>394</v>
       </c>
       <c r="C235" t="s">
         <v>36</v>
@@ -15473,16 +15482,16 @@
         <v>41</v>
       </c>
       <c r="H235" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="I235" t="s">
-        <v>347</v>
+        <v>395</v>
       </c>
       <c r="J235">
         <v>39</v>
       </c>
       <c r="K235" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="N235">
         <v>2</v>
@@ -15506,15 +15515,15 @@
         <v>5</v>
       </c>
       <c r="Z235" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="236" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="B236" t="s">
-        <v>346</v>
+        <v>394</v>
       </c>
       <c r="C236" t="s">
         <v>36</v>
@@ -15532,16 +15541,16 @@
         <v>41</v>
       </c>
       <c r="H236" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="I236" t="s">
-        <v>347</v>
+        <v>395</v>
       </c>
       <c r="J236">
         <v>40</v>
       </c>
       <c r="K236" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="N236">
         <v>1</v>
@@ -15565,15 +15574,15 @@
         <v>5</v>
       </c>
       <c r="Z236" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="237" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="B237" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="C237" t="s">
         <v>36</v>
@@ -15591,16 +15600,16 @@
         <v>41</v>
       </c>
       <c r="H237" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="I237" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="J237">
         <v>36</v>
       </c>
       <c r="K237" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="N237">
         <v>2</v>
@@ -15624,15 +15633,15 @@
         <v>5</v>
       </c>
       <c r="Z237" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="238" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="B238" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="C238" t="s">
         <v>36</v>
@@ -15650,16 +15659,16 @@
         <v>41</v>
       </c>
       <c r="H238" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="I238" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="J238">
         <v>37</v>
       </c>
       <c r="K238" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="N238">
         <v>3</v>
@@ -15683,16 +15692,16 @@
         <v>5</v>
       </c>
       <c r="Z238" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="239" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
+        <v>342</v>
+      </c>
+      <c r="B239" t="s">
         <v>350</v>
       </c>
-      <c r="B239" t="s">
-        <v>358</v>
-      </c>
       <c r="C239" t="s">
         <v>36</v>
       </c>
@@ -15709,16 +15718,16 @@
         <v>41</v>
       </c>
       <c r="H239" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="I239" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="J239">
         <v>38</v>
       </c>
       <c r="K239" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="N239">
         <v>4</v>
@@ -15742,42 +15751,42 @@
         <v>5</v>
       </c>
       <c r="Z239" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="240" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
+        <v>343</v>
+      </c>
+      <c r="B240" t="s">
+        <v>350</v>
+      </c>
+      <c r="C240" t="s">
+        <v>36</v>
+      </c>
+      <c r="D240" t="s">
+        <v>37</v>
+      </c>
+      <c r="E240" t="s">
+        <v>39</v>
+      </c>
+      <c r="F240" t="s">
+        <v>40</v>
+      </c>
+      <c r="G240" t="s">
+        <v>41</v>
+      </c>
+      <c r="H240" t="s">
+        <v>310</v>
+      </c>
+      <c r="I240" t="s">
         <v>351</v>
       </c>
-      <c r="B240" t="s">
-        <v>358</v>
-      </c>
-      <c r="C240" t="s">
-        <v>36</v>
-      </c>
-      <c r="D240" t="s">
-        <v>37</v>
-      </c>
-      <c r="E240" t="s">
-        <v>39</v>
-      </c>
-      <c r="F240" t="s">
-        <v>40</v>
-      </c>
-      <c r="G240" t="s">
-        <v>41</v>
-      </c>
-      <c r="H240" t="s">
-        <v>316</v>
-      </c>
-      <c r="I240" t="s">
-        <v>359</v>
-      </c>
       <c r="J240">
         <v>39</v>
       </c>
       <c r="K240" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="N240">
         <v>2</v>
@@ -15801,15 +15810,15 @@
         <v>5</v>
       </c>
       <c r="Z240" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="241" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="B241" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="C241" t="s">
         <v>36</v>
@@ -15827,16 +15836,16 @@
         <v>41</v>
       </c>
       <c r="H241" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="I241" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="J241">
         <v>40</v>
       </c>
       <c r="K241" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="N241">
         <v>2</v>
@@ -15860,15 +15869,15 @@
         <v>5</v>
       </c>
       <c r="Z241" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="242" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="B242" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="C242" t="s">
         <v>36</v>
@@ -15886,16 +15895,16 @@
         <v>41</v>
       </c>
       <c r="H242" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="I242" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="J242">
         <v>41</v>
       </c>
       <c r="K242" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="N242">
         <v>2</v>
@@ -15919,15 +15928,15 @@
         <v>5</v>
       </c>
       <c r="Z242" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="243" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="B243" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="C243" t="s">
         <v>36</v>
@@ -15945,16 +15954,16 @@
         <v>41</v>
       </c>
       <c r="H243" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="I243" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="J243">
         <v>42</v>
       </c>
       <c r="K243" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="N243">
         <v>3</v>
@@ -15978,15 +15987,15 @@
         <v>5</v>
       </c>
       <c r="Z243" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="244" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="B244" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="C244" t="s">
         <v>36</v>
@@ -16004,16 +16013,16 @@
         <v>41</v>
       </c>
       <c r="H244" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="I244" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="J244">
         <v>43</v>
       </c>
       <c r="K244" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="N244">
         <v>3</v>
@@ -16037,15 +16046,15 @@
         <v>5</v>
       </c>
       <c r="Z244" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="245" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="B245" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="C245" t="s">
         <v>36</v>
@@ -16063,16 +16072,16 @@
         <v>41</v>
       </c>
       <c r="H245" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="I245" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="J245">
         <v>44</v>
       </c>
       <c r="K245" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="N245">
         <v>2</v>
@@ -16096,15 +16105,15 @@
         <v>5</v>
       </c>
       <c r="Z245" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="246" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="B246" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="C246" t="s">
         <v>36</v>
@@ -16122,16 +16131,16 @@
         <v>41</v>
       </c>
       <c r="H246" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="I246" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="J246">
         <v>45</v>
       </c>
       <c r="K246" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="N246">
         <v>1</v>
@@ -16155,15 +16164,15 @@
         <v>5</v>
       </c>
       <c r="Z246" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="247" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="B247" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="C247" t="s">
         <v>36</v>
@@ -16181,10 +16190,10 @@
         <v>41</v>
       </c>
       <c r="H247" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="I247" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="J247">
         <v>36</v>
@@ -16214,15 +16223,15 @@
         <v>5</v>
       </c>
       <c r="Z247" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
     </row>
     <row r="248" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="B248" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="C248" t="s">
         <v>36</v>
@@ -16240,10 +16249,10 @@
         <v>41</v>
       </c>
       <c r="H248" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="I248" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="J248">
         <v>37</v>
@@ -16273,15 +16282,15 @@
         <v>5</v>
       </c>
       <c r="Z248" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
     </row>
     <row r="249" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="B249" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="C249" t="s">
         <v>36</v>
@@ -16299,10 +16308,10 @@
         <v>41</v>
       </c>
       <c r="H249" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="I249" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="J249">
         <v>38</v>
@@ -16332,15 +16341,15 @@
         <v>5</v>
       </c>
       <c r="Z249" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
     </row>
     <row r="250" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="B250" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="C250" t="s">
         <v>36</v>
@@ -16358,10 +16367,10 @@
         <v>41</v>
       </c>
       <c r="H250" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="I250" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="J250">
         <v>39</v>
@@ -16391,15 +16400,15 @@
         <v>5</v>
       </c>
       <c r="Z250" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
     </row>
     <row r="251" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="B251" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="C251" t="s">
         <v>36</v>
@@ -16417,10 +16426,10 @@
         <v>41</v>
       </c>
       <c r="H251" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="I251" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="J251">
         <v>40</v>
@@ -16450,15 +16459,15 @@
         <v>5</v>
       </c>
       <c r="Z251" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
     </row>
     <row r="252" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="B252" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="C252" t="s">
         <v>36</v>
@@ -16476,10 +16485,10 @@
         <v>41</v>
       </c>
       <c r="H252" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="I252" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="J252">
         <v>36</v>
@@ -16509,15 +16518,15 @@
         <v>5</v>
       </c>
       <c r="Z252" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
     </row>
     <row r="253" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="B253" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="C253" t="s">
         <v>36</v>
@@ -16535,10 +16544,10 @@
         <v>41</v>
       </c>
       <c r="H253" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="I253" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="J253">
         <v>37</v>
@@ -16568,15 +16577,15 @@
         <v>5</v>
       </c>
       <c r="Z253" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
     </row>
     <row r="254" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="B254" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="C254" t="s">
         <v>36</v>
@@ -16594,10 +16603,10 @@
         <v>41</v>
       </c>
       <c r="H254" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="I254" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="J254">
         <v>38</v>
@@ -16627,15 +16636,15 @@
         <v>5</v>
       </c>
       <c r="Z254" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
     </row>
     <row r="255" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="B255" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="C255" t="s">
         <v>36</v>
@@ -16653,10 +16662,10 @@
         <v>41</v>
       </c>
       <c r="H255" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="I255" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="J255">
         <v>39</v>
@@ -16686,15 +16695,15 @@
         <v>5</v>
       </c>
       <c r="Z255" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
     </row>
     <row r="256" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="B256" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="C256" t="s">
         <v>36</v>
@@ -16712,10 +16721,10 @@
         <v>41</v>
       </c>
       <c r="H256" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="I256" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="J256">
         <v>40</v>
@@ -16745,15 +16754,15 @@
         <v>5</v>
       </c>
       <c r="Z256" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
     </row>
     <row r="257" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="B257" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="C257" t="s">
         <v>36</v>
@@ -16771,10 +16780,10 @@
         <v>41</v>
       </c>
       <c r="H257" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="I257" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="J257">
         <v>36</v>
@@ -16804,15 +16813,15 @@
         <v>5</v>
       </c>
       <c r="Z257" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
     </row>
     <row r="258" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="B258" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="C258" t="s">
         <v>36</v>
@@ -16830,10 +16839,10 @@
         <v>41</v>
       </c>
       <c r="H258" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="I258" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="J258">
         <v>37</v>
@@ -16863,15 +16872,15 @@
         <v>5</v>
       </c>
       <c r="Z258" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
     </row>
     <row r="259" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="B259" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="C259" t="s">
         <v>36</v>
@@ -16889,10 +16898,10 @@
         <v>41</v>
       </c>
       <c r="H259" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="I259" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="J259">
         <v>38</v>
@@ -16922,15 +16931,15 @@
         <v>5</v>
       </c>
       <c r="Z259" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
     </row>
     <row r="260" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="B260" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="C260" t="s">
         <v>36</v>
@@ -16948,10 +16957,10 @@
         <v>41</v>
       </c>
       <c r="H260" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="I260" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="J260">
         <v>39</v>
@@ -16981,15 +16990,15 @@
         <v>5</v>
       </c>
       <c r="Z260" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
     </row>
     <row r="261" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="B261" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="C261" t="s">
         <v>36</v>
@@ -17007,10 +17016,10 @@
         <v>41</v>
       </c>
       <c r="H261" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="I261" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="J261">
         <v>40</v>
@@ -17040,15 +17049,15 @@
         <v>5</v>
       </c>
       <c r="Z261" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
     </row>
     <row r="262" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="B262" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="C262" t="s">
         <v>36</v>
@@ -17066,10 +17075,10 @@
         <v>41</v>
       </c>
       <c r="H262" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="I262" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="J262">
         <v>36</v>
@@ -17099,15 +17108,15 @@
         <v>5</v>
       </c>
       <c r="Z262" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
     </row>
     <row r="263" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="B263" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="C263" t="s">
         <v>36</v>
@@ -17125,10 +17134,10 @@
         <v>41</v>
       </c>
       <c r="H263" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="I263" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="J263">
         <v>37</v>
@@ -17158,15 +17167,15 @@
         <v>5</v>
       </c>
       <c r="Z263" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
     </row>
     <row r="264" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="B264" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="C264" t="s">
         <v>36</v>
@@ -17184,10 +17193,10 @@
         <v>41</v>
       </c>
       <c r="H264" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="I264" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="J264">
         <v>38</v>
@@ -17217,15 +17226,15 @@
         <v>5</v>
       </c>
       <c r="Z264" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
     </row>
     <row r="265" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="B265" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="C265" t="s">
         <v>36</v>
@@ -17243,10 +17252,10 @@
         <v>41</v>
       </c>
       <c r="H265" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="I265" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="J265">
         <v>39</v>
@@ -17276,15 +17285,15 @@
         <v>5</v>
       </c>
       <c r="Z265" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
     </row>
     <row r="266" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="B266" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="C266" t="s">
         <v>36</v>
@@ -17302,10 +17311,10 @@
         <v>41</v>
       </c>
       <c r="H266" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="I266" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="J266">
         <v>40</v>
@@ -17335,15 +17344,15 @@
         <v>5</v>
       </c>
       <c r="Z266" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
     </row>
     <row r="267" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="B267" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="C267" t="s">
         <v>36</v>
@@ -17361,10 +17370,10 @@
         <v>41</v>
       </c>
       <c r="H267" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="I267" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="J267">
         <v>36</v>
@@ -17394,15 +17403,15 @@
         <v>5</v>
       </c>
       <c r="Z267" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
     </row>
     <row r="268" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="B268" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="C268" t="s">
         <v>36</v>
@@ -17420,10 +17429,10 @@
         <v>41</v>
       </c>
       <c r="H268" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="I268" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="J268">
         <v>37</v>
@@ -17453,15 +17462,15 @@
         <v>5</v>
       </c>
       <c r="Z268" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
     </row>
     <row r="269" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="B269" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="C269" t="s">
         <v>36</v>
@@ -17479,10 +17488,10 @@
         <v>41</v>
       </c>
       <c r="H269" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="I269" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="J269">
         <v>38</v>
@@ -17512,15 +17521,15 @@
         <v>5</v>
       </c>
       <c r="Z269" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
     </row>
     <row r="270" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="B270" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="C270" t="s">
         <v>36</v>
@@ -17538,10 +17547,10 @@
         <v>41</v>
       </c>
       <c r="H270" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="I270" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="J270">
         <v>39</v>
@@ -17571,15 +17580,15 @@
         <v>5</v>
       </c>
       <c r="Z270" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
     </row>
     <row r="271" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="B271" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="C271" t="s">
         <v>36</v>
@@ -17597,10 +17606,10 @@
         <v>41</v>
       </c>
       <c r="H271" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="I271" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="J271">
         <v>40</v>
@@ -17630,11 +17639,12 @@
         <v>5</v>
       </c>
       <c r="Z271" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
 </worksheet>
 </file>